--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\NH\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3DED37-FC00-4EC5-A853-115506CE5E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E5D280E-4415-40A7-8DCD-EF20A37BBE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="315" windowWidth="15690" windowHeight="17025" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
   <si>
     <t>Sources:</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>energy consumption that more closely matches EIA's AEO trajectory: freight LDVs, passenger HDVs, freight HDVs, passenger ships, passenger motorbikes.</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1287,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1325,6 +1328,7 @@
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5693,199 +5697,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>3.9525225541302687E-5</c:v>
+                  <c:v>3.9525225541302694E-3</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>3.9505622007027585E-5</c:v>
+                  <c:v>3.9505622007027594E-3</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>3.9486018472752483E-5</c:v>
+                  <c:v>3.9486018472752495E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>3.9466414938477381E-5</c:v>
+                  <c:v>3.9466414938477395E-3</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>3.9446811404202279E-5</c:v>
+                  <c:v>3.9446811404202295E-3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>3.9427207869927177E-5</c:v>
+                  <c:v>3.9427207869927195E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>3.9407604335652075E-5</c:v>
+                  <c:v>3.9407604335652087E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>3.9388000801376973E-5</c:v>
+                  <c:v>3.9388000801376987E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.9368397267101871E-5</c:v>
+                  <c:v>3.9368397267101887E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>3.9348793732826769E-5</c:v>
+                  <c:v>3.9348793732826778E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>3.9329190198551674E-5</c:v>
+                  <c:v>3.9329190198551679E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>3.9309586664276572E-5</c:v>
+                  <c:v>3.9309586664276579E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>3.928998313000147E-5</c:v>
+                  <c:v>3.9289983130001479E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>3.9270379595726368E-5</c:v>
+                  <c:v>3.9270379595726379E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>3.9250776061451266E-5</c:v>
+                  <c:v>3.9250776061451271E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>3.9231172527176164E-5</c:v>
+                  <c:v>3.9231172527176171E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>3.9211568992901062E-5</c:v>
+                  <c:v>3.9211568992901071E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>3.919196545862596E-5</c:v>
+                  <c:v>3.9191965458625971E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>3.9172361924350858E-5</c:v>
+                  <c:v>3.9172361924350863E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>3.9152758390075756E-5</c:v>
+                  <c:v>3.9152758390075763E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>3.9133154855800654E-5</c:v>
+                  <c:v>3.9133154855800663E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>3.9113551321525552E-5</c:v>
+                  <c:v>3.9113551321525563E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.909394778725045E-5</c:v>
+                  <c:v>3.9093947787250463E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.9074344252975348E-5</c:v>
+                  <c:v>3.9074344252975355E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.9054740718700246E-5</c:v>
+                  <c:v>3.9054740718700255E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.9035137184425144E-5</c:v>
+                  <c:v>3.9035137184425155E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.9015533650150042E-5</c:v>
+                  <c:v>3.9015533650150055E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.899593011587494E-5</c:v>
+                  <c:v>3.8995930115874955E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.8976326581599838E-5</c:v>
+                  <c:v>3.8976326581599847E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.8956723047324736E-5</c:v>
+                  <c:v>3.8956723047324747E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.8937119513049634E-5</c:v>
+                  <c:v>3.8937119513049647E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.8917515978774532E-5</c:v>
+                  <c:v>3.8917515978774547E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.889791244449943E-5</c:v>
+                  <c:v>3.8897912444499439E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.8878308910224328E-5</c:v>
+                  <c:v>3.8878308910224339E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.8868922094850746E-5</c:v>
+                  <c:v>3.886892209485075E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.8835964956971156E-5</c:v>
+                  <c:v>3.8835964956971157E-3</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.8810530909215343E-5</c:v>
+                  <c:v>3.8810530909215344E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.8794345419032002E-5</c:v>
+                  <c:v>3.8794345419032004E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.8779756085887973E-5</c:v>
+                  <c:v>3.8779756085887975E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8768659775611612E-5</c:v>
+                  <c:v>3.8768659775611615E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.8756372155893972E-5</c:v>
+                  <c:v>3.8756372155893974E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.8743413448561118E-5</c:v>
+                  <c:v>3.8743413448561114E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.8741625203614656E-5</c:v>
+                  <c:v>3.8741625203614657E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.873869428995112E-5</c:v>
+                  <c:v>3.8738694289951123E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.8727323156960051E-5</c:v>
+                  <c:v>3.8727323156960052E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.872801832305252E-5</c:v>
+                  <c:v>3.872801832305252E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.8723285633958972E-5</c:v>
+                  <c:v>3.8723285633958972E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.8719654146009875E-5</c:v>
+                  <c:v>3.8719654146009874E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.8712836957078314E-5</c:v>
+                  <c:v>3.8712836957078313E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.871017437594258E-5</c:v>
+                  <c:v>3.8710174375942577E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.8701959513390746E-5</c:v>
+                  <c:v>3.8701959513390751E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.8693459130790492E-5</c:v>
+                  <c:v>3.8693459130790496E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.8684314096127021E-5</c:v>
+                  <c:v>3.8684314096127021E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.8675224209457144E-5</c:v>
+                  <c:v>3.867522420945714E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.8662639724460569E-5</c:v>
+                  <c:v>3.8662639724460568E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.8650753548999096E-5</c:v>
+                  <c:v>3.8650753548999097E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>3.8637937383671609E-5</c:v>
+                  <c:v>3.8637937383671607E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>3.8623677194928998E-5</c:v>
+                  <c:v>3.8623677194928995E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>3.8608334518532409E-5</c:v>
+                  <c:v>3.8608334518532407E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>3.8590701122559256E-5</c:v>
+                  <c:v>3.8590701122559255E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>3.8573556454320506E-5</c:v>
+                  <c:v>3.8573556454320505E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>3.8555651429608931E-5</c:v>
+                  <c:v>3.8555651429608932E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>3.8536129241038666E-5</c:v>
+                  <c:v>3.8536129241038665E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>3.8512787391125357E-5</c:v>
+                  <c:v>3.8512787391125356E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>3.8487689875144674E-5</c:v>
+                  <c:v>3.8487689875144671E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6220,199 +6224,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>2.6319489092741909E-4</c:v>
+                  <c:v>2.6319489092741927E-3</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>2.656830419354838E-4</c:v>
+                  <c:v>2.6568304193548414E-3</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.681711929435485E-4</c:v>
+                  <c:v>2.6817119294354833E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.706593439516132E-4</c:v>
+                  <c:v>2.706593439516132E-3</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>2.7314749495967704E-4</c:v>
+                  <c:v>2.7314749495967738E-3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.7563564596774174E-4</c:v>
+                  <c:v>2.7563564596774226E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.7812379697580644E-4</c:v>
+                  <c:v>2.7812379697580644E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>2.8061194798387114E-4</c:v>
+                  <c:v>2.8061194798387132E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>2.8310009899193585E-4</c:v>
+                  <c:v>2.831000989919355E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>2.8558824999999968E-4</c:v>
+                  <c:v>2.8558824999999968E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>2.8807640100806439E-4</c:v>
+                  <c:v>2.8807640100806456E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>2.9056455201612909E-4</c:v>
+                  <c:v>2.9056455201612874E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>2.9305270302419379E-4</c:v>
+                  <c:v>2.9305270302419362E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>2.9554085403225849E-4</c:v>
+                  <c:v>2.955408540322578E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>2.9802900504032233E-4</c:v>
+                  <c:v>2.9802900504032268E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>3.0051715604838703E-4</c:v>
+                  <c:v>3.0051715604838686E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>3.0300530705645173E-4</c:v>
+                  <c:v>3.0300530705645173E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>3.0549345806451644E-4</c:v>
+                  <c:v>3.0549345806451592E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>3.0798160907258027E-4</c:v>
+                  <c:v>3.0798160907258079E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>3.1046976008064497E-4</c:v>
+                  <c:v>3.1046976008064497E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>3.1295791108870968E-4</c:v>
+                  <c:v>3.1295791108870985E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>3.1544606209677438E-4</c:v>
+                  <c:v>3.1544606209677403E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.1793421310483908E-4</c:v>
+                  <c:v>3.1793421310483891E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.2042236411290292E-4</c:v>
+                  <c:v>3.2042236411290309E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.2291051512096762E-4</c:v>
+                  <c:v>3.2291051512096797E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.2539866612903232E-4</c:v>
+                  <c:v>3.2539866612903215E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.2788681713709703E-4</c:v>
+                  <c:v>3.2788681713709703E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.3037496814516173E-4</c:v>
+                  <c:v>3.3037496814516121E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.3286311915322556E-4</c:v>
+                  <c:v>3.3286311915322608E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.3535127016129027E-4</c:v>
+                  <c:v>3.3535127016129027E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.3783942116935497E-4</c:v>
+                  <c:v>3.3783942116935514E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.4032757217741967E-4</c:v>
+                  <c:v>3.4032757217741932E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.4281572318548351E-4</c:v>
+                  <c:v>3.428157231854842E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.4530387419354821E-4</c:v>
+                  <c:v>3.4530387419354838E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.4893709999999999E-4</c:v>
+                  <c:v>3.4893709999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.5120030000000002E-4</c:v>
+                  <c:v>3.5120030000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.5347819999999997E-4</c:v>
+                  <c:v>3.5347819999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.5577100000000001E-4</c:v>
+                  <c:v>3.55771E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.5807850000000002E-4</c:v>
+                  <c:v>3.580785E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.6040100000000005E-4</c:v>
+                  <c:v>3.6040100000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.6273859999999997E-4</c:v>
+                  <c:v>3.6273859999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.6509140000000003E-4</c:v>
+                  <c:v>3.6509140000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.6745939999999997E-4</c:v>
+                  <c:v>3.6745939999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.6984279999999995E-4</c:v>
+                  <c:v>3.6984279999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.7224160000000003E-4</c:v>
+                  <c:v>3.7224160000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.7465600000000001E-4</c:v>
+                  <c:v>3.7465599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.77086E-4</c:v>
+                  <c:v>3.77086E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.7953179999999996E-4</c:v>
+                  <c:v>3.7953179999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.8199350000000002E-4</c:v>
+                  <c:v>3.819935E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.8447119999999996E-4</c:v>
+                  <c:v>3.8447119999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.8696489999999999E-4</c:v>
+                  <c:v>3.8696489999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.8947480000000001E-4</c:v>
+                  <c:v>3.894748E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.9200089999999997E-4</c:v>
+                  <c:v>3.9200089999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.9454349999999997E-4</c:v>
+                  <c:v>3.9454349999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.9710250000000004E-4</c:v>
+                  <c:v>3.9710250000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.996782E-4</c:v>
+                  <c:v>3.9967819999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.0227050000000004E-4</c:v>
+                  <c:v>4.0227050000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.0487970000000005E-4</c:v>
+                  <c:v>4.0487970000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.0750580000000001E-4</c:v>
+                  <c:v>4.0750580000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.1014889999999997E-4</c:v>
+                  <c:v>4.1014889999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.1280910000000002E-4</c:v>
+                  <c:v>4.1280910000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.154866E-4</c:v>
+                  <c:v>4.1548660000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.1818150000000001E-4</c:v>
+                  <c:v>4.1818150000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.2089390000000002E-4</c:v>
+                  <c:v>4.2089390000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.2362379999999998E-4</c:v>
+                  <c:v>4.2362379999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7809,7 +7813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
@@ -7821,12 +7825,18 @@
     <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="30">
+        <v>44834</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7834,58 +7844,58 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="B8" s="5">
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="B14" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -11933,127 +11943,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>8.4577010748440118E-4</v>
+        <v>8.4577010748440179E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>8.5376571765036235E-4</v>
+        <v>8.5376571765036352E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>8.6176132781632352E-4</v>
+        <v>8.61761327816323E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>8.6975693798228457E-4</v>
+        <v>8.6975693798228455E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>8.7775254814824303E-4</v>
+        <v>8.7775254814824403E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>8.8574815831420409E-4</v>
+        <v>8.8574815831420576E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>8.9374376848016526E-4</v>
+        <v>8.9374376848016523E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>9.0173937864612642E-4</v>
+        <v>9.0173937864612697E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>9.0973498881208748E-4</v>
+        <v>9.0973498881208644E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>9.1773059897804583E-4</v>
+        <v>9.1773059897804592E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>9.25726209144007E-4</v>
+        <v>9.2572620914400765E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>9.3372181930996816E-4</v>
+        <v>9.3372181930996695E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>9.4171742947592933E-4</v>
+        <v>9.4171742947592868E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>9.4971303964189039E-4</v>
+        <v>9.4971303964188816E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>9.5770864980784874E-4</v>
+        <v>9.5770864980784989E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>9.657042599738099E-4</v>
+        <v>9.6570425997380936E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>9.7369987013977107E-4</v>
+        <v>9.7369987013977109E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>9.8169548030573213E-4</v>
+        <v>9.8169548030573057E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>9.8969109047169048E-4</v>
+        <v>9.8969109047169213E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>9.9768670063765164E-4</v>
+        <v>9.976867006376516E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0056823108036128E-3</v>
+        <v>1.0056823108036133E-2</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.013677920969574E-3</v>
+        <v>1.0136779209695728E-2</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0216735311355351E-3</v>
+        <v>1.0216735311355345E-2</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0296691413014935E-3</v>
+        <v>1.029669141301494E-2</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0376647514674547E-3</v>
+        <v>1.0376647514674557E-2</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0456603616334156E-3</v>
+        <v>1.0456603616334152E-2</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0536559717993768E-3</v>
+        <v>1.0536559717993768E-2</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0616515819653379E-3</v>
+        <v>1.0616515819653363E-2</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0696471921312963E-3</v>
+        <v>1.069647192131298E-2</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0776428022972575E-3</v>
+        <v>1.0776428022972575E-2</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>1.0856384124632186E-3</v>
+        <v>1.0856384124632192E-2</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -12260,127 +12270,127 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!F10</f>
-        <v>2.6319489092741909E-4</v>
+        <v>2.6319489092741927E-3</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!G10</f>
-        <v>2.656830419354838E-4</v>
+        <v>2.6568304193548414E-3</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!H10</f>
-        <v>2.681711929435485E-4</v>
+        <v>2.6817119294354833E-3</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!I10</f>
-        <v>2.706593439516132E-4</v>
+        <v>2.706593439516132E-3</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!J10</f>
-        <v>2.7314749495967704E-4</v>
+        <v>2.7314749495967738E-3</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!K10</f>
-        <v>2.7563564596774174E-4</v>
+        <v>2.7563564596774226E-3</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!L10</f>
-        <v>2.7812379697580644E-4</v>
+        <v>2.7812379697580644E-3</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!M10</f>
-        <v>2.8061194798387114E-4</v>
+        <v>2.8061194798387132E-3</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!N10</f>
-        <v>2.8310009899193585E-4</v>
+        <v>2.831000989919355E-3</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!O10</f>
-        <v>2.8558824999999968E-4</v>
+        <v>2.8558824999999968E-3</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!P10</f>
-        <v>2.8807640100806439E-4</v>
+        <v>2.8807640100806456E-3</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!Q10</f>
-        <v>2.9056455201612909E-4</v>
+        <v>2.9056455201612874E-3</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!R10</f>
-        <v>2.9305270302419379E-4</v>
+        <v>2.9305270302419362E-3</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!S10</f>
-        <v>2.9554085403225849E-4</v>
+        <v>2.955408540322578E-3</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!T10</f>
-        <v>2.9802900504032233E-4</v>
+        <v>2.9802900504032268E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!U10</f>
-        <v>3.0051715604838703E-4</v>
+        <v>3.0051715604838686E-3</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!V10</f>
-        <v>3.0300530705645173E-4</v>
+        <v>3.0300530705645173E-3</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!W10</f>
-        <v>3.0549345806451644E-4</v>
+        <v>3.0549345806451592E-3</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!X10</f>
-        <v>3.0798160907258027E-4</v>
+        <v>3.0798160907258079E-3</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!Y10</f>
-        <v>3.1046976008064497E-4</v>
+        <v>3.1046976008064497E-3</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!Z10</f>
-        <v>3.1295791108870968E-4</v>
+        <v>3.1295791108870985E-3</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AA10</f>
-        <v>3.1544606209677438E-4</v>
+        <v>3.1544606209677403E-3</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AB10</f>
-        <v>3.1793421310483908E-4</v>
+        <v>3.1793421310483891E-3</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AC10</f>
-        <v>3.2042236411290292E-4</v>
+        <v>3.2042236411290309E-3</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AD10</f>
-        <v>3.2291051512096762E-4</v>
+        <v>3.2291051512096797E-3</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AE10</f>
-        <v>3.2539866612903232E-4</v>
+        <v>3.2539866612903215E-3</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AF10</f>
-        <v>3.2788681713709703E-4</v>
+        <v>3.2788681713709703E-3</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AG10</f>
-        <v>3.3037496814516173E-4</v>
+        <v>3.3037496814516121E-3</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AH10</f>
-        <v>3.3286311915322556E-4</v>
+        <v>3.3286311915322608E-3</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AI10</f>
-        <v>3.3535127016129027E-4</v>
+        <v>3.3535127016129027E-3</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AJ10</f>
-        <v>3.3783942116935497E-4</v>
+        <v>3.3783942116935514E-3</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -12587,127 +12597,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>7.8958467278225717E-4</v>
+        <v>7.8958467278225763E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>7.9704912580645128E-4</v>
+        <v>7.9704912580645226E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>8.0451357883064539E-4</v>
+        <v>8.045135788306448E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>8.119780318548395E-4</v>
+        <v>8.1197803185483943E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>8.19442484879031E-4</v>
+        <v>8.1944248487903198E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>8.2690693790322511E-4</v>
+        <v>8.2690693790322661E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>8.3437139092741922E-4</v>
+        <v>8.3437139092741915E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>8.4183584395161333E-4</v>
+        <v>8.4183584395161378E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>8.4930029697580743E-4</v>
+        <v>8.4930029697580633E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>8.5676474999999894E-4</v>
+        <v>8.5676474999999887E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>8.6422920302419305E-4</v>
+        <v>8.642292030241935E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>8.7169365604838716E-4</v>
+        <v>8.7169365604838605E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>8.7915810907258126E-4</v>
+        <v>8.7915810907258068E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>8.8662256209677537E-4</v>
+        <v>8.8662256209677322E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>8.9408701512096688E-4</v>
+        <v>8.9408701512096785E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>9.0155146814516098E-4</v>
+        <v>9.015514681451604E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>9.0901592116935509E-4</v>
+        <v>9.0901592116935503E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>9.164803741935492E-4</v>
+        <v>9.1648037419354757E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>9.2394482721774071E-4</v>
+        <v>9.239448272177422E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>9.3140928024193481E-4</v>
+        <v>9.3140928024193475E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>9.3887373326612892E-4</v>
+        <v>9.3887373326612938E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>9.4633818629032303E-4</v>
+        <v>9.4633818629032192E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>9.5380263931451714E-4</v>
+        <v>9.5380263931451655E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>9.6126709233870864E-4</v>
+        <v>9.612670923387091E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>9.6873154536290275E-4</v>
+        <v>9.6873154536290373E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>9.7619599838709686E-4</v>
+        <v>9.7619599838709627E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>9.8366045141129086E-4</v>
+        <v>9.836604514112909E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>9.9112490443548497E-4</v>
+        <v>9.9112490443548345E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>9.9858935745967647E-4</v>
+        <v>9.9858935745967808E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.0060538104838706E-3</v>
+        <v>1.0060538104838706E-2</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.0135182635080647E-3</v>
+        <v>1.0135182635080653E-2</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -16507,8 +16517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17340,97 +17350,97 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>3.8868922094850746E-5</v>
+        <v>3.886892209485075E-3</v>
       </c>
       <c r="E14" s="4">
-        <v>3.8835964956971156E-5</v>
+        <v>3.8835964956971157E-3</v>
       </c>
       <c r="F14" s="4">
-        <v>3.8810530909215343E-5</v>
+        <v>3.8810530909215344E-3</v>
       </c>
       <c r="G14" s="4">
-        <v>3.8794345419032002E-5</v>
+        <v>3.8794345419032004E-3</v>
       </c>
       <c r="H14" s="4">
-        <v>3.8779756085887973E-5</v>
+        <v>3.8779756085887975E-3</v>
       </c>
       <c r="I14" s="4">
-        <v>3.8768659775611612E-5</v>
+        <v>3.8768659775611615E-3</v>
       </c>
       <c r="J14" s="4">
-        <v>3.8756372155893972E-5</v>
+        <v>3.8756372155893974E-3</v>
       </c>
       <c r="K14" s="4">
-        <v>3.8743413448561118E-5</v>
+        <v>3.8743413448561114E-3</v>
       </c>
       <c r="L14" s="4">
-        <v>3.8741625203614656E-5</v>
+        <v>3.8741625203614657E-3</v>
       </c>
       <c r="M14" s="4">
-        <v>3.873869428995112E-5</v>
+        <v>3.8738694289951123E-3</v>
       </c>
       <c r="N14" s="4">
-        <v>3.8727323156960051E-5</v>
+        <v>3.8727323156960052E-3</v>
       </c>
       <c r="O14" s="4">
-        <v>3.872801832305252E-5</v>
+        <v>3.872801832305252E-3</v>
       </c>
       <c r="P14" s="4">
-        <v>3.8723285633958972E-5</v>
+        <v>3.8723285633958972E-3</v>
       </c>
       <c r="Q14" s="4">
-        <v>3.8719654146009875E-5</v>
+        <v>3.8719654146009874E-3</v>
       </c>
       <c r="R14" s="4">
-        <v>3.8712836957078314E-5</v>
+        <v>3.8712836957078313E-3</v>
       </c>
       <c r="S14" s="4">
-        <v>3.871017437594258E-5</v>
+        <v>3.8710174375942577E-3</v>
       </c>
       <c r="T14" s="4">
-        <v>3.8701959513390746E-5</v>
+        <v>3.8701959513390751E-3</v>
       </c>
       <c r="U14" s="4">
-        <v>3.8693459130790492E-5</v>
+        <v>3.8693459130790496E-3</v>
       </c>
       <c r="V14" s="4">
-        <v>3.8684314096127021E-5</v>
+        <v>3.8684314096127021E-3</v>
       </c>
       <c r="W14" s="4">
-        <v>3.8675224209457144E-5</v>
+        <v>3.867522420945714E-3</v>
       </c>
       <c r="X14" s="4">
-        <v>3.8662639724460569E-5</v>
+        <v>3.8662639724460568E-3</v>
       </c>
       <c r="Y14" s="4">
-        <v>3.8650753548999096E-5</v>
+        <v>3.8650753548999097E-3</v>
       </c>
       <c r="Z14" s="4">
-        <v>3.8637937383671609E-5</v>
+        <v>3.8637937383671607E-3</v>
       </c>
       <c r="AA14" s="4">
-        <v>3.8623677194928998E-5</v>
+        <v>3.8623677194928995E-3</v>
       </c>
       <c r="AB14" s="4">
-        <v>3.8608334518532409E-5</v>
+        <v>3.8608334518532407E-3</v>
       </c>
       <c r="AC14" s="4">
-        <v>3.8590701122559256E-5</v>
+        <v>3.8590701122559255E-3</v>
       </c>
       <c r="AD14" s="4">
-        <v>3.8573556454320506E-5</v>
+        <v>3.8573556454320505E-3</v>
       </c>
       <c r="AE14" s="4">
-        <v>3.8555651429608931E-5</v>
+        <v>3.8555651429608932E-3</v>
       </c>
       <c r="AF14" s="4">
-        <v>3.8536129241038666E-5</v>
+        <v>3.8536129241038665E-3</v>
       </c>
       <c r="AG14" s="4">
-        <v>3.8512787391125357E-5</v>
+        <v>3.8512787391125356E-3</v>
       </c>
       <c r="AH14" s="4">
-        <v>3.8487689875144674E-5</v>
+        <v>3.8487689875144671E-3</v>
       </c>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
@@ -17556,97 +17566,97 @@
         <v>5</v>
       </c>
       <c r="D16" s="4">
-        <v>3.4893709999999999E-4</v>
+        <v>3.4893709999999998E-3</v>
       </c>
       <c r="E16" s="4">
-        <v>3.5120030000000002E-4</v>
+        <v>3.5120030000000001E-3</v>
       </c>
       <c r="F16" s="4">
-        <v>3.5347819999999997E-4</v>
+        <v>3.5347819999999998E-3</v>
       </c>
       <c r="G16" s="4">
-        <v>3.5577100000000001E-4</v>
+        <v>3.55771E-3</v>
       </c>
       <c r="H16" s="4">
-        <v>3.5807850000000002E-4</v>
+        <v>3.580785E-3</v>
       </c>
       <c r="I16" s="4">
-        <v>3.6040100000000005E-4</v>
+        <v>3.6040100000000004E-3</v>
       </c>
       <c r="J16" s="4">
-        <v>3.6273859999999997E-4</v>
+        <v>3.6273859999999998E-3</v>
       </c>
       <c r="K16" s="4">
-        <v>3.6509140000000003E-4</v>
+        <v>3.6509140000000003E-3</v>
       </c>
       <c r="L16" s="4">
-        <v>3.6745939999999997E-4</v>
+        <v>3.6745939999999998E-3</v>
       </c>
       <c r="M16" s="4">
-        <v>3.6984279999999995E-4</v>
+        <v>3.6984279999999997E-3</v>
       </c>
       <c r="N16" s="4">
-        <v>3.7224160000000003E-4</v>
+        <v>3.7224160000000001E-3</v>
       </c>
       <c r="O16" s="4">
-        <v>3.7465600000000001E-4</v>
+        <v>3.7465599999999999E-3</v>
       </c>
       <c r="P16" s="4">
-        <v>3.77086E-4</v>
+        <v>3.77086E-3</v>
       </c>
       <c r="Q16" s="4">
-        <v>3.7953179999999996E-4</v>
+        <v>3.7953179999999998E-3</v>
       </c>
       <c r="R16" s="4">
-        <v>3.8199350000000002E-4</v>
+        <v>3.819935E-3</v>
       </c>
       <c r="S16" s="4">
-        <v>3.8447119999999996E-4</v>
+        <v>3.8447119999999997E-3</v>
       </c>
       <c r="T16" s="4">
-        <v>3.8696489999999999E-4</v>
+        <v>3.8696489999999997E-3</v>
       </c>
       <c r="U16" s="4">
-        <v>3.8947480000000001E-4</v>
+        <v>3.894748E-3</v>
       </c>
       <c r="V16" s="4">
-        <v>3.9200089999999997E-4</v>
+        <v>3.9200089999999995E-3</v>
       </c>
       <c r="W16" s="4">
-        <v>3.9454349999999997E-4</v>
+        <v>3.9454349999999997E-3</v>
       </c>
       <c r="X16" s="4">
-        <v>3.9710250000000004E-4</v>
+        <v>3.9710250000000004E-3</v>
       </c>
       <c r="Y16" s="4">
-        <v>3.996782E-4</v>
+        <v>3.9967819999999999E-3</v>
       </c>
       <c r="Z16" s="4">
-        <v>4.0227050000000004E-4</v>
+        <v>4.0227050000000006E-3</v>
       </c>
       <c r="AA16" s="4">
-        <v>4.0487970000000005E-4</v>
+        <v>4.0487970000000007E-3</v>
       </c>
       <c r="AB16" s="4">
-        <v>4.0750580000000001E-4</v>
+        <v>4.0750580000000003E-3</v>
       </c>
       <c r="AC16" s="4">
-        <v>4.1014889999999997E-4</v>
+        <v>4.1014889999999998E-3</v>
       </c>
       <c r="AD16" s="4">
-        <v>4.1280910000000002E-4</v>
+        <v>4.1280910000000004E-3</v>
       </c>
       <c r="AE16" s="4">
-        <v>4.154866E-4</v>
+        <v>4.1548660000000001E-3</v>
       </c>
       <c r="AF16" s="4">
-        <v>4.1818150000000001E-4</v>
+        <v>4.1818150000000002E-3</v>
       </c>
       <c r="AG16" s="4">
-        <v>4.2089390000000002E-4</v>
+        <v>4.2089390000000001E-3</v>
       </c>
       <c r="AH16" s="4">
-        <v>4.2362379999999998E-4</v>
+        <v>4.2362379999999998E-3</v>
       </c>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
@@ -18994,16 +19004,16 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1.2405209526886144E-4</v>
+        <v>1.2405209526886144E-3</v>
       </c>
       <c r="C5">
-        <v>4.2438874697242062E-5</v>
+        <v>4.2438874697242066E-3</v>
       </c>
       <c r="D5">
-        <v>4.2438874697242062E-5</v>
+        <v>4.2438874697242066E-3</v>
       </c>
       <c r="E5">
-        <v>4.2438874697242062E-5</v>
+        <v>4.2438874697242066E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19012,7 +19022,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.2731662409172617E-4</v>
+        <v>1.2731662409172617E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -19176,16 +19186,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1.1140743815291445E-3</v>
+        <v>1.1140743815291445E-2</v>
       </c>
       <c r="C13">
-        <v>3.4668839999999997E-4</v>
+        <v>3.4668839999999999E-3</v>
       </c>
       <c r="D13">
-        <v>3.4668839999999997E-4</v>
+        <v>3.4668839999999999E-3</v>
       </c>
       <c r="E13">
-        <v>3.4668839999999997E-4</v>
+        <v>3.4668839999999999E-3</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -19194,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.0400651999999998E-3</v>
+        <v>1.0400651999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -19648,7 +19658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AN10" sqref="AN10"/>
     </sheetView>
@@ -21294,263 +21304,263 @@
       <c r="E8" s="9"/>
       <c r="F8" s="4">
         <f>TREND($AN8:$AS8,$AN$1:$AS$1,F$1)</f>
-        <v>3.9525225541302687E-5</v>
+        <v>3.9525225541302694E-3</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ref="G8:AM9" si="6">TREND($AN8:$AS8,$AN$1:$AS$1,G$1)</f>
-        <v>3.9505622007027585E-5</v>
+        <v>3.9505622007027594E-3</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9486018472752483E-5</v>
+        <v>3.9486018472752495E-3</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9466414938477381E-5</v>
+        <v>3.9466414938477395E-3</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9446811404202279E-5</v>
+        <v>3.9446811404202295E-3</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9427207869927177E-5</v>
+        <v>3.9427207869927195E-3</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9407604335652075E-5</v>
+        <v>3.9407604335652087E-3</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9388000801376973E-5</v>
+        <v>3.9388000801376987E-3</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9368397267101871E-5</v>
+        <v>3.9368397267101887E-3</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9348793732826769E-5</v>
+        <v>3.9348793732826778E-3</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9329190198551674E-5</v>
+        <v>3.9329190198551679E-3</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9309586664276572E-5</v>
+        <v>3.9309586664276579E-3</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="6"/>
-        <v>3.928998313000147E-5</v>
+        <v>3.9289983130001479E-3</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9270379595726368E-5</v>
+        <v>3.9270379595726379E-3</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9250776061451266E-5</v>
+        <v>3.9250776061451271E-3</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9231172527176164E-5</v>
+        <v>3.9231172527176171E-3</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9211568992901062E-5</v>
+        <v>3.9211568992901071E-3</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="6"/>
-        <v>3.919196545862596E-5</v>
+        <v>3.9191965458625971E-3</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9172361924350858E-5</v>
+        <v>3.9172361924350863E-3</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9152758390075756E-5</v>
+        <v>3.9152758390075763E-3</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9133154855800654E-5</v>
+        <v>3.9133154855800663E-3</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9113551321525552E-5</v>
+        <v>3.9113551321525563E-3</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="6"/>
-        <v>3.909394778725045E-5</v>
+        <v>3.9093947787250463E-3</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9074344252975348E-5</v>
+        <v>3.9074344252975355E-3</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9054740718700246E-5</v>
+        <v>3.9054740718700255E-3</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9035137184425144E-5</v>
+        <v>3.9035137184425155E-3</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9015533650150042E-5</v>
+        <v>3.9015533650150055E-3</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="6"/>
-        <v>3.899593011587494E-5</v>
+        <v>3.8995930115874955E-3</v>
       </c>
       <c r="AH8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8976326581599838E-5</v>
+        <v>3.8976326581599847E-3</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8956723047324736E-5</v>
+        <v>3.8956723047324747E-3</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8937119513049634E-5</v>
+        <v>3.8937119513049647E-3</v>
       </c>
       <c r="AK8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8917515978774532E-5</v>
+        <v>3.8917515978774547E-3</v>
       </c>
       <c r="AL8" s="4">
         <f t="shared" si="6"/>
-        <v>3.889791244449943E-5</v>
+        <v>3.8897912444499439E-3</v>
       </c>
       <c r="AM8" s="28">
         <f t="shared" si="6"/>
-        <v>3.8878308910224328E-5</v>
+        <v>3.8878308910224339E-3</v>
       </c>
       <c r="AN8" s="11">
         <f>BNVFE!D14</f>
-        <v>3.8868922094850746E-5</v>
+        <v>3.886892209485075E-3</v>
       </c>
       <c r="AO8" s="11">
         <f>BNVFE!E14</f>
-        <v>3.8835964956971156E-5</v>
+        <v>3.8835964956971157E-3</v>
       </c>
       <c r="AP8" s="11">
         <f>BNVFE!F14</f>
-        <v>3.8810530909215343E-5</v>
+        <v>3.8810530909215344E-3</v>
       </c>
       <c r="AQ8" s="11">
         <f>BNVFE!G14</f>
-        <v>3.8794345419032002E-5</v>
+        <v>3.8794345419032004E-3</v>
       </c>
       <c r="AR8" s="11">
         <f>BNVFE!H14</f>
-        <v>3.8779756085887973E-5</v>
+        <v>3.8779756085887975E-3</v>
       </c>
       <c r="AS8" s="11">
         <f>BNVFE!I14</f>
-        <v>3.8768659775611612E-5</v>
+        <v>3.8768659775611615E-3</v>
       </c>
       <c r="AT8" s="11">
         <f>BNVFE!J14</f>
-        <v>3.8756372155893972E-5</v>
+        <v>3.8756372155893974E-3</v>
       </c>
       <c r="AU8" s="11">
         <f>BNVFE!K14</f>
-        <v>3.8743413448561118E-5</v>
+        <v>3.8743413448561114E-3</v>
       </c>
       <c r="AV8" s="11">
         <f>BNVFE!L14</f>
-        <v>3.8741625203614656E-5</v>
+        <v>3.8741625203614657E-3</v>
       </c>
       <c r="AW8" s="11">
         <f>BNVFE!M14</f>
-        <v>3.873869428995112E-5</v>
+        <v>3.8738694289951123E-3</v>
       </c>
       <c r="AX8" s="11">
         <f>BNVFE!N14</f>
-        <v>3.8727323156960051E-5</v>
+        <v>3.8727323156960052E-3</v>
       </c>
       <c r="AY8" s="11">
         <f>BNVFE!O14</f>
-        <v>3.872801832305252E-5</v>
+        <v>3.872801832305252E-3</v>
       </c>
       <c r="AZ8" s="11">
         <f>BNVFE!P14</f>
-        <v>3.8723285633958972E-5</v>
+        <v>3.8723285633958972E-3</v>
       </c>
       <c r="BA8" s="11">
         <f>BNVFE!Q14</f>
-        <v>3.8719654146009875E-5</v>
+        <v>3.8719654146009874E-3</v>
       </c>
       <c r="BB8" s="11">
         <f>BNVFE!R14</f>
-        <v>3.8712836957078314E-5</v>
+        <v>3.8712836957078313E-3</v>
       </c>
       <c r="BC8" s="11">
         <f>BNVFE!S14</f>
-        <v>3.871017437594258E-5</v>
+        <v>3.8710174375942577E-3</v>
       </c>
       <c r="BD8" s="11">
         <f>BNVFE!T14</f>
-        <v>3.8701959513390746E-5</v>
+        <v>3.8701959513390751E-3</v>
       </c>
       <c r="BE8" s="11">
         <f>BNVFE!U14</f>
-        <v>3.8693459130790492E-5</v>
+        <v>3.8693459130790496E-3</v>
       </c>
       <c r="BF8" s="11">
         <f>BNVFE!V14</f>
-        <v>3.8684314096127021E-5</v>
+        <v>3.8684314096127021E-3</v>
       </c>
       <c r="BG8" s="11">
         <f>BNVFE!W14</f>
-        <v>3.8675224209457144E-5</v>
+        <v>3.867522420945714E-3</v>
       </c>
       <c r="BH8" s="11">
         <f>BNVFE!X14</f>
-        <v>3.8662639724460569E-5</v>
+        <v>3.8662639724460568E-3</v>
       </c>
       <c r="BI8" s="11">
         <f>BNVFE!Y14</f>
-        <v>3.8650753548999096E-5</v>
+        <v>3.8650753548999097E-3</v>
       </c>
       <c r="BJ8" s="11">
         <f>BNVFE!Z14</f>
-        <v>3.8637937383671609E-5</v>
+        <v>3.8637937383671607E-3</v>
       </c>
       <c r="BK8" s="11">
         <f>BNVFE!AA14</f>
-        <v>3.8623677194928998E-5</v>
+        <v>3.8623677194928995E-3</v>
       </c>
       <c r="BL8" s="11">
         <f>BNVFE!AB14</f>
-        <v>3.8608334518532409E-5</v>
+        <v>3.8608334518532407E-3</v>
       </c>
       <c r="BM8" s="11">
         <f>BNVFE!AC14</f>
-        <v>3.8590701122559256E-5</v>
+        <v>3.8590701122559255E-3</v>
       </c>
       <c r="BN8" s="11">
         <f>BNVFE!AD14</f>
-        <v>3.8573556454320506E-5</v>
+        <v>3.8573556454320505E-3</v>
       </c>
       <c r="BO8" s="11">
         <f>BNVFE!AE14</f>
-        <v>3.8555651429608931E-5</v>
+        <v>3.8555651429608932E-3</v>
       </c>
       <c r="BP8" s="11">
         <f>BNVFE!AF14</f>
-        <v>3.8536129241038666E-5</v>
+        <v>3.8536129241038665E-3</v>
       </c>
       <c r="BQ8" s="11">
         <f>BNVFE!AG14</f>
-        <v>3.8512787391125357E-5</v>
+        <v>3.8512787391125356E-3</v>
       </c>
       <c r="BR8" s="11">
         <f>BNVFE!AH14</f>
-        <v>3.8487689875144674E-5</v>
+        <v>3.8487689875144671E-3</v>
       </c>
       <c r="BS8" s="11"/>
       <c r="BT8" s="4"/>
@@ -21840,263 +21850,263 @@
       <c r="E10" s="9"/>
       <c r="F10" s="4">
         <f>TREND($AN10:$BR10,$AN$1:$BR$1,F$1)</f>
-        <v>2.6319489092741909E-4</v>
+        <v>2.6319489092741927E-3</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ref="G10:AM13" si="7">TREND($AN10:$BR10,$AN$1:$BR$1,G$1)</f>
-        <v>2.656830419354838E-4</v>
+        <v>2.6568304193548414E-3</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="7"/>
-        <v>2.681711929435485E-4</v>
+        <v>2.6817119294354833E-3</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="7"/>
-        <v>2.706593439516132E-4</v>
+        <v>2.706593439516132E-3</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="7"/>
-        <v>2.7314749495967704E-4</v>
+        <v>2.7314749495967738E-3</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="7"/>
-        <v>2.7563564596774174E-4</v>
+        <v>2.7563564596774226E-3</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="7"/>
-        <v>2.7812379697580644E-4</v>
+        <v>2.7812379697580644E-3</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="7"/>
-        <v>2.8061194798387114E-4</v>
+        <v>2.8061194798387132E-3</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="7"/>
-        <v>2.8310009899193585E-4</v>
+        <v>2.831000989919355E-3</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="7"/>
-        <v>2.8558824999999968E-4</v>
+        <v>2.8558824999999968E-3</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="7"/>
-        <v>2.8807640100806439E-4</v>
+        <v>2.8807640100806456E-3</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="7"/>
-        <v>2.9056455201612909E-4</v>
+        <v>2.9056455201612874E-3</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="7"/>
-        <v>2.9305270302419379E-4</v>
+        <v>2.9305270302419362E-3</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="7"/>
-        <v>2.9554085403225849E-4</v>
+        <v>2.955408540322578E-3</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="7"/>
-        <v>2.9802900504032233E-4</v>
+        <v>2.9802900504032268E-3</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0051715604838703E-4</v>
+        <v>3.0051715604838686E-3</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0300530705645173E-4</v>
+        <v>3.0300530705645173E-3</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0549345806451644E-4</v>
+        <v>3.0549345806451592E-3</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="7"/>
-        <v>3.0798160907258027E-4</v>
+        <v>3.0798160907258079E-3</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1046976008064497E-4</v>
+        <v>3.1046976008064497E-3</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1295791108870968E-4</v>
+        <v>3.1295791108870985E-3</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1544606209677438E-4</v>
+        <v>3.1544606209677403E-3</v>
       </c>
       <c r="AB10" s="4">
         <f t="shared" si="7"/>
-        <v>3.1793421310483908E-4</v>
+        <v>3.1793421310483891E-3</v>
       </c>
       <c r="AC10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2042236411290292E-4</v>
+        <v>3.2042236411290309E-3</v>
       </c>
       <c r="AD10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2291051512096762E-4</v>
+        <v>3.2291051512096797E-3</v>
       </c>
       <c r="AE10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2539866612903232E-4</v>
+        <v>3.2539866612903215E-3</v>
       </c>
       <c r="AF10" s="4">
         <f t="shared" si="7"/>
-        <v>3.2788681713709703E-4</v>
+        <v>3.2788681713709703E-3</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3037496814516173E-4</v>
+        <v>3.3037496814516121E-3</v>
       </c>
       <c r="AH10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3286311915322556E-4</v>
+        <v>3.3286311915322608E-3</v>
       </c>
       <c r="AI10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3535127016129027E-4</v>
+        <v>3.3535127016129027E-3</v>
       </c>
       <c r="AJ10" s="4">
         <f t="shared" si="7"/>
-        <v>3.3783942116935497E-4</v>
+        <v>3.3783942116935514E-3</v>
       </c>
       <c r="AK10" s="4">
         <f t="shared" si="7"/>
-        <v>3.4032757217741967E-4</v>
+        <v>3.4032757217741932E-3</v>
       </c>
       <c r="AL10" s="4">
         <f t="shared" si="7"/>
-        <v>3.4281572318548351E-4</v>
+        <v>3.428157231854842E-3</v>
       </c>
       <c r="AM10" s="28">
         <f>TREND($AN10:$BR10,$AN$1:$BR$1,AM$1)</f>
-        <v>3.4530387419354821E-4</v>
+        <v>3.4530387419354838E-3</v>
       </c>
       <c r="AN10" s="11">
         <f>BNVFE!D16</f>
-        <v>3.4893709999999999E-4</v>
+        <v>3.4893709999999998E-3</v>
       </c>
       <c r="AO10" s="11">
         <f>BNVFE!E16</f>
-        <v>3.5120030000000002E-4</v>
+        <v>3.5120030000000001E-3</v>
       </c>
       <c r="AP10" s="11">
         <f>BNVFE!F16</f>
-        <v>3.5347819999999997E-4</v>
+        <v>3.5347819999999998E-3</v>
       </c>
       <c r="AQ10" s="11">
         <f>BNVFE!G16</f>
-        <v>3.5577100000000001E-4</v>
+        <v>3.55771E-3</v>
       </c>
       <c r="AR10" s="11">
         <f>BNVFE!H16</f>
-        <v>3.5807850000000002E-4</v>
+        <v>3.580785E-3</v>
       </c>
       <c r="AS10" s="11">
         <f>BNVFE!I16</f>
-        <v>3.6040100000000005E-4</v>
+        <v>3.6040100000000004E-3</v>
       </c>
       <c r="AT10" s="11">
         <f>BNVFE!J16</f>
-        <v>3.6273859999999997E-4</v>
+        <v>3.6273859999999998E-3</v>
       </c>
       <c r="AU10" s="11">
         <f>BNVFE!K16</f>
-        <v>3.6509140000000003E-4</v>
+        <v>3.6509140000000003E-3</v>
       </c>
       <c r="AV10" s="11">
         <f>BNVFE!L16</f>
-        <v>3.6745939999999997E-4</v>
+        <v>3.6745939999999998E-3</v>
       </c>
       <c r="AW10" s="11">
         <f>BNVFE!M16</f>
-        <v>3.6984279999999995E-4</v>
+        <v>3.6984279999999997E-3</v>
       </c>
       <c r="AX10" s="11">
         <f>BNVFE!N16</f>
-        <v>3.7224160000000003E-4</v>
+        <v>3.7224160000000001E-3</v>
       </c>
       <c r="AY10" s="11">
         <f>BNVFE!O16</f>
-        <v>3.7465600000000001E-4</v>
+        <v>3.7465599999999999E-3</v>
       </c>
       <c r="AZ10" s="11">
         <f>BNVFE!P16</f>
-        <v>3.77086E-4</v>
+        <v>3.77086E-3</v>
       </c>
       <c r="BA10" s="11">
         <f>BNVFE!Q16</f>
-        <v>3.7953179999999996E-4</v>
+        <v>3.7953179999999998E-3</v>
       </c>
       <c r="BB10" s="11">
         <f>BNVFE!R16</f>
-        <v>3.8199350000000002E-4</v>
+        <v>3.819935E-3</v>
       </c>
       <c r="BC10" s="11">
         <f>BNVFE!S16</f>
-        <v>3.8447119999999996E-4</v>
+        <v>3.8447119999999997E-3</v>
       </c>
       <c r="BD10" s="11">
         <f>BNVFE!T16</f>
-        <v>3.8696489999999999E-4</v>
+        <v>3.8696489999999997E-3</v>
       </c>
       <c r="BE10" s="11">
         <f>BNVFE!U16</f>
-        <v>3.8947480000000001E-4</v>
+        <v>3.894748E-3</v>
       </c>
       <c r="BF10" s="11">
         <f>BNVFE!V16</f>
-        <v>3.9200089999999997E-4</v>
+        <v>3.9200089999999995E-3</v>
       </c>
       <c r="BG10" s="11">
         <f>BNVFE!W16</f>
-        <v>3.9454349999999997E-4</v>
+        <v>3.9454349999999997E-3</v>
       </c>
       <c r="BH10" s="11">
         <f>BNVFE!X16</f>
-        <v>3.9710250000000004E-4</v>
+        <v>3.9710250000000004E-3</v>
       </c>
       <c r="BI10" s="11">
         <f>BNVFE!Y16</f>
-        <v>3.996782E-4</v>
+        <v>3.9967819999999999E-3</v>
       </c>
       <c r="BJ10" s="11">
         <f>BNVFE!Z16</f>
-        <v>4.0227050000000004E-4</v>
+        <v>4.0227050000000006E-3</v>
       </c>
       <c r="BK10" s="11">
         <f>BNVFE!AA16</f>
-        <v>4.0487970000000005E-4</v>
+        <v>4.0487970000000007E-3</v>
       </c>
       <c r="BL10" s="11">
         <f>BNVFE!AB16</f>
-        <v>4.0750580000000001E-4</v>
+        <v>4.0750580000000003E-3</v>
       </c>
       <c r="BM10" s="11">
         <f>BNVFE!AC16</f>
-        <v>4.1014889999999997E-4</v>
+        <v>4.1014889999999998E-3</v>
       </c>
       <c r="BN10" s="11">
         <f>BNVFE!AD16</f>
-        <v>4.1280910000000002E-4</v>
+        <v>4.1280910000000004E-3</v>
       </c>
       <c r="BO10" s="11">
         <f>BNVFE!AE16</f>
-        <v>4.154866E-4</v>
+        <v>4.1548660000000001E-3</v>
       </c>
       <c r="BP10" s="11">
         <f>BNVFE!AF16</f>
-        <v>4.1818150000000001E-4</v>
+        <v>4.1818150000000002E-3</v>
       </c>
       <c r="BQ10" s="11">
         <f>BNVFE!AG16</f>
-        <v>4.2089390000000002E-4</v>
+        <v>4.2089390000000001E-3</v>
       </c>
       <c r="BR10" s="11">
         <f>BNVFE!AH16</f>
-        <v>4.2362379999999998E-4</v>
+        <v>4.2362379999999998E-3</v>
       </c>
       <c r="BS10" s="11"/>
       <c r="BT10" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NH\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE03598-BB73-4998-B126-3E53AD65E6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA33D1C-165D-458B-89E7-BF89376ADE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="555" windowWidth="19605" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="730" windowWidth="9800" windowHeight="10070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1777,133 +1777,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.170827862483609E-4</c:v>
+                  <c:v>3.1934654476143933E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.199157108645295E-4</c:v>
+                  <c:v>3.2444322789068635E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.227486354806981E-4</c:v>
+                  <c:v>3.2953991101993338E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.255815600968667E-4</c:v>
+                  <c:v>3.346365941491804E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.284144847130353E-4</c:v>
+                  <c:v>3.3973327727842743E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.312474093292039E-4</c:v>
+                  <c:v>3.4482996040767445E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.3408033394537249E-4</c:v>
+                  <c:v>3.4992664353692148E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.3691325856154109E-4</c:v>
+                  <c:v>3.550233266661685E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.3974618317770969E-4</c:v>
+                  <c:v>3.6012000979541552E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.4257910779387829E-4</c:v>
+                  <c:v>3.6521669292466255E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.4541203241004689E-4</c:v>
+                  <c:v>3.7031337605390957E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.4824495702621549E-4</c:v>
+                  <c:v>3.754100591831566E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.5107788164238408E-4</c:v>
+                  <c:v>3.8050674231240362E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.5391080625855263E-4</c:v>
+                  <c:v>3.8560342544165043E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.6152338546126896E-4</c:v>
+                  <c:v>3.938977091004229E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.6806778318324615E-4</c:v>
+                  <c:v>4.0102815590911211E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.7326311577328699E-4</c:v>
+                  <c:v>4.0668872915977704E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8684273091170592E-4</c:v>
+                  <c:v>4.2148439524556525E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.9133628030331842E-4</c:v>
+                  <c:v>4.2638034079782157E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.9460271712590122E-4</c:v>
+                  <c:v>4.2993928617474374E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.0654622240144441E-4</c:v>
+                  <c:v>4.4295232919176118E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.0753465089361259E-4</c:v>
+                  <c:v>4.4402927119422075E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.0771889354095417E-4</c:v>
+                  <c:v>4.4423001272194757E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.0791884576015625E-4</c:v>
+                  <c:v>4.4444787060954387E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.0852284515353123E-4</c:v>
+                  <c:v>4.4510595798899477E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.09583671112226E-4</c:v>
+                  <c:v>4.4626178063197816E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.1078673798239525E-4</c:v>
+                  <c:v>4.4757258182247277E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.122748024320864E-4</c:v>
+                  <c:v>4.4919390205042781E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.1373149805260076E-4</c:v>
+                  <c:v>4.5078104437884211E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.1495700440447459E-4</c:v>
+                  <c:v>4.5211629450069859E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.1601549646964788E-4</c:v>
+                  <c:v>4.5326957425061224E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.1779365223495714E-4</c:v>
+                  <c:v>4.5520696339484528E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.1809544457369974E-4</c:v>
+                  <c:v>4.5553578115777672E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.1838332983416382E-4</c:v>
+                  <c:v>4.5584944646724456E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.1848122624012197E-4</c:v>
+                  <c:v>4.559561094704881E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.1826563698301188E-4</c:v>
+                  <c:v>4.5572121425237108E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.1769414168042572E-4</c:v>
+                  <c:v>4.550985416964502E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.1714393092982577E-4</c:v>
+                  <c:v>4.5449905971852166E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.1708664938544884E-4</c:v>
+                  <c:v>4.5443664862698183E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.165029094218215E-4</c:v>
+                  <c:v>4.5380063490385911E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.1616572999280917E-4</c:v>
+                  <c:v>4.5343326114607497E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.1755377409260071E-4</c:v>
+                  <c:v>4.5494560422822621E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.1711981834238049E-4</c:v>
+                  <c:v>4.5447278785524218E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3236,136 +3236,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.5108389563240119E-5</c:v>
+                  <c:v>5.0412726378568952E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.7552820431472588E-5</c:v>
+                  <c:v>5.4271492176534604E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.9997251299705058E-5</c:v>
+                  <c:v>5.8130257974500256E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.2441682167937527E-5</c:v>
+                  <c:v>6.1989023772465041E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4886113036169997E-5</c:v>
+                  <c:v>6.5847789570430693E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.7330543904402466E-5</c:v>
+                  <c:v>6.9706555368396345E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.9774974772634936E-5</c:v>
+                  <c:v>7.3565321166361129E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.2219405640867405E-5</c:v>
+                  <c:v>7.7424086964326781E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.4663836509099875E-5</c:v>
+                  <c:v>8.1282852762291566E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.7108267377332344E-5</c:v>
+                  <c:v>8.5141618560257218E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.9552698245564814E-5</c:v>
+                  <c:v>8.900038435822287E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.0199712911379728E-4</c:v>
+                  <c:v>9.2859150156187655E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.0444155998202975E-4</c:v>
+                  <c:v>9.6717915954153307E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.0688599085026222E-4</c:v>
+                  <c:v>1.0057668175211809E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.0748894488887501E-4</c:v>
+                  <c:v>1.0420515928406728E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.1376628742778099E-4</c:v>
+                  <c:v>1.0877081887028839E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.1487084665170681E-4</c:v>
+                  <c:v>1.119228749342E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.1675219072501874E-4</c:v>
+                  <c:v>1.1596328986495364E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.1821814758141852E-4</c:v>
+                  <c:v>1.1990275277656129E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.1769306557695523E-4</c:v>
+                  <c:v>1.2199635295884858E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.1740735707916262E-4</c:v>
+                  <c:v>1.243467097653028E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.1551151797500483E-4</c:v>
+                  <c:v>1.2468075205096364E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.1449785838376007E-4</c:v>
+                  <c:v>1.2577381385553893E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.13287341804607E-4</c:v>
+                  <c:v>1.2646319222836433E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1212406398402511E-4</c:v>
+                  <c:v>1.2698406877407795E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1076186329973974E-4</c:v>
+                  <c:v>1.2710494044541212E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.0947685788155618E-4</c:v>
+                  <c:v>1.2713124547346271E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.0833659526703707E-4</c:v>
+                  <c:v>1.2714496314152464E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.0725258337875167E-4</c:v>
+                  <c:v>1.2712313200368365E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.0627237374881068E-4</c:v>
+                  <c:v>1.271005238267318E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.053872190542009E-4</c:v>
+                  <c:v>1.2708001023750603E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.0457070988285631E-4</c:v>
+                  <c:v>1.2705407014004141E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.0382785746559407E-4</c:v>
+                  <c:v>1.2702629811717708E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.0317553743970813E-4</c:v>
+                  <c:v>1.2701194080551808E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.0260660677729319E-4</c:v>
+                  <c:v>1.2701796387221964E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.0212195692865432E-4</c:v>
+                  <c:v>1.2701802056749482E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.0164270384030296E-4</c:v>
+                  <c:v>1.270327910946451E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.0120623842325044E-4</c:v>
+                  <c:v>1.2702817221538397E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.0086620530512349E-4</c:v>
+                  <c:v>1.2698131801807758E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.0054219744424832E-4</c:v>
+                  <c:v>1.2695571200958938E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.9850684341711718E-5</c:v>
+                  <c:v>1.2640538596243631E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.9621972535475967E-5</c:v>
+                  <c:v>1.2643551327178303E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.9483752435656976E-5</c:v>
+                  <c:v>1.2650241733350927E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.9383928406132565E-5</c:v>
+                  <c:v>1.2663654108394285E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,91 +3699,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.1807374066651307E-3</c:v>
+                  <c:v>1.1628806678959742E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.177387347221569E-3</c:v>
+                  <c:v>1.1604234453908705E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.1740372877780075E-3</c:v>
+                  <c:v>1.1579662228857668E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.1706872283344459E-3</c:v>
+                  <c:v>1.1555090003806633E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.1673371688908844E-3</c:v>
+                  <c:v>1.1530517778755595E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.163987109447323E-3</c:v>
+                  <c:v>1.1505945553704558E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.1606370500037615E-3</c:v>
+                  <c:v>1.1481373328653521E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.1572869905602E-3</c:v>
+                  <c:v>1.1456801103602485E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.1539369311166386E-3</c:v>
+                  <c:v>1.1432228878551448E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.1505868716730771E-3</c:v>
+                  <c:v>1.1407656653500411E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.1472368122295155E-3</c:v>
+                  <c:v>1.1383084428449376E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.143886752785954E-3</c:v>
+                  <c:v>1.1358512203398338E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.1405366933423926E-3</c:v>
+                  <c:v>1.1333939978347303E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.1371866338988309E-3</c:v>
+                  <c:v>1.1309367753296266E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.1338365744552694E-3</c:v>
+                  <c:v>1.1284795528245229E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.130486515011708E-3</c:v>
+                  <c:v>1.1260223303194191E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.1271364555681463E-3</c:v>
+                  <c:v>1.1235651078143154E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.1237863961245848E-3</c:v>
+                  <c:v>1.1211078853092119E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.1204363366810234E-3</c:v>
+                  <c:v>1.1186506628041082E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>1.1137362177939013E-3</c:v>
@@ -3801,34 +3801,34 @@
                   <c:v>1.2984724640643824E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.3325458991476347E-3</c:v>
+                  <c:v>1.3325458991476349E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
                   <c:v>1.3625499159680566E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.3753174198569201E-3</c:v>
+                  <c:v>1.3753174198569197E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
                   <c:v>1.3946841343267524E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.4146533498165595E-3</c:v>
+                  <c:v>1.4146533498165597E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.4334182752321722E-3</c:v>
+                  <c:v>1.433418275232172E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
                   <c:v>1.4445909758303492E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.4455847020325701E-3</c:v>
+                  <c:v>1.4455847020325705E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.4457021763821076E-3</c:v>
+                  <c:v>1.4457021763821074E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.4456854451868699E-3</c:v>
+                  <c:v>1.4456854451868704E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
                   <c:v>1.4457034223221783E-3</c:v>
@@ -3840,22 +3840,22 @@
                   <c:v>1.4455629870770495E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.4452171497116701E-3</c:v>
+                  <c:v>1.4452171497116699E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.4450916657473916E-3</c:v>
+                  <c:v>1.4450916657473914E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
                   <c:v>1.4448529792281048E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.443856049179987E-3</c:v>
+                  <c:v>1.4438560491799872E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.4432142120520614E-3</c:v>
+                  <c:v>1.4432142120520612E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.443266541535037E-3</c:v>
+                  <c:v>1.4432665415350372E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
                   <c:v>1.4434251319069122E-3</c:v>
@@ -4240,148 +4240,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.7819056047563108E-4</c:v>
+                  <c:v>7.7875573937035282E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.7597634894858872E-4</c:v>
+                  <c:v>7.771067067380322E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.7376213742154636E-4</c:v>
+                  <c:v>7.7545767410571158E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.71547925894504E-4</c:v>
+                  <c:v>7.7380864147339097E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.6933371436746164E-4</c:v>
+                  <c:v>7.7215960884107035E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.6711950284041929E-4</c:v>
+                  <c:v>7.7051057620874973E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.6490529131337693E-4</c:v>
+                  <c:v>7.6886154357642912E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>7.6269107978633457E-4</c:v>
+                  <c:v>7.672125109441085E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>7.6047686825929221E-4</c:v>
+                  <c:v>7.6556347831178788E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>7.5826265673224985E-4</c:v>
+                  <c:v>7.6391444567946727E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>7.5604844520520749E-4</c:v>
+                  <c:v>7.6226541304714665E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>7.5383423367816514E-4</c:v>
+                  <c:v>7.6061638041482603E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>7.5162002215112278E-4</c:v>
+                  <c:v>7.5896734778250542E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>7.4940581062408042E-4</c:v>
+                  <c:v>7.573183151501848E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>7.4719159909703806E-4</c:v>
+                  <c:v>7.5566928251786418E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>7.449773875699957E-4</c:v>
+                  <c:v>7.5402024988554357E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>7.4276317604295334E-4</c:v>
+                  <c:v>7.5237121725322295E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>7.4054896451591099E-4</c:v>
+                  <c:v>7.5072218462090233E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>7.3612054146182692E-4</c:v>
+                  <c:v>7.4742411935626142E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>7.8447318350072194E-4</c:v>
+                  <c:v>7.9651924557390657E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>8.0913266389472246E-4</c:v>
+                  <c:v>8.2155738726285784E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>8.3445529729440947E-4</c:v>
+                  <c:v>8.4726886507457174E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>8.582213975349269E-4</c:v>
+                  <c:v>8.7139990821531331E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>8.8074213007663328E-4</c:v>
+                  <c:v>8.9426646028002797E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>9.0057319308330108E-4</c:v>
+                  <c:v>9.1440204130079723E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>9.0901183566816969E-4</c:v>
+                  <c:v>9.2297026436659075E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.2181220627128113E-4</c:v>
+                  <c:v>9.3596719243283541E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>9.3501079807791388E-4</c:v>
+                  <c:v>9.4936845663098554E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>9.4741341804908898E-4</c:v>
+                  <c:v>9.6196152636282171E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>9.5479798028431191E-4</c:v>
+                  <c:v>9.6945948303515201E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>9.5545478057360543E-4</c:v>
+                  <c:v>9.7012636889170394E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>9.5553242488507497E-4</c:v>
+                  <c:v>9.7020520547872228E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>9.5552136645283517E-4</c:v>
+                  <c:v>9.7019397723754094E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>9.5553324838534815E-4</c:v>
+                  <c:v>9.7020604162434225E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>9.5550160244627959E-4</c:v>
+                  <c:v>9.7017390974266364E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>9.5544042814027313E-4</c:v>
+                  <c:v>9.7011179606804271E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>9.5521184799302321E-4</c:v>
+                  <c:v>9.6987970593383536E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>9.5512890975122625E-4</c:v>
+                  <c:v>9.6979549412497463E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>9.5497115062746795E-4</c:v>
+                  <c:v>9.6963531251407814E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>9.5431223276604333E-4</c:v>
+                  <c:v>9.6896627656878928E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>9.5388801248246955E-4</c:v>
+                  <c:v>9.6853554212517003E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>9.5392259949394229E-4</c:v>
+                  <c:v>9.6857066024120565E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>9.5402741931442593E-4</c:v>
+                  <c:v>9.6867708963368051E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>9.5426270510675759E-4</c:v>
+                  <c:v>9.6891598838222154E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.5454316577121671E-4</c:v>
+                  <c:v>9.6920075569048212E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.5490315303348411E-4</c:v>
+                  <c:v>9.6956627077574963E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.5518761355641295E-4</c:v>
+                  <c:v>9.6985509936273564E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.555246604539279E-4</c:v>
+                  <c:v>9.701973218200204E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7795,10 +7795,10 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.40625" customWidth="1"/>
+    <col min="2" max="2" width="107.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7809,7 +7809,7 @@
         <v>99</v>
       </c>
       <c r="C1" s="31">
-        <v>45321</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8032,12 +8032,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9031,12 +9031,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9908,12 +9908,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -10785,14 +10785,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="2" max="2" width="10.40625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30">
+    <row r="1" spans="1:32">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -11691,12 +11691,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -12568,12 +12568,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -13559,12 +13559,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -14436,12 +14436,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -15435,12 +15435,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30">
+    <row r="1" spans="1:31">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -16210,14 +16210,14 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.40625" customWidth="1"/>
+    <col min="2" max="2" width="16.40625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -16391,94 +16391,94 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.1601549646964788E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.1779365223495714E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.1809544457369974E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.1838332983416382E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.1848122624012197E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.1826563698301188E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.1769414168042572E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.1714393092982577E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.1708664938544884E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.165029094218215E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.1616572999280917E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.1755377409260071E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.1711981834238049E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -16496,94 +16496,94 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
@@ -16616,34 +16616,34 @@
         <v>1.2984724640643824E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="J10" s="4">
         <v>1.3625499159680566E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="L10" s="4">
         <v>1.3946841343267524E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="O10" s="4">
         <v>1.4445909758303492E-3</v>
       </c>
       <c r="P10" s="4">
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="S10" s="4">
         <v>1.4457034223221783E-3</v>
@@ -16655,22 +16655,22 @@
         <v>1.4455629870770495E-3</v>
       </c>
       <c r="V10" s="4">
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="W10" s="4">
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="X10" s="4">
         <v>1.4448529792281048E-3</v>
       </c>
       <c r="Y10" s="4">
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="Z10" s="4">
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="AB10" s="4">
         <v>1.4434251319069122E-3</v>
@@ -16706,94 +16706,94 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="M11" s="4">
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="N11" s="4">
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="O11" s="4">
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="P11" s="4">
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="Q11" s="4">
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="R11" s="4">
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="S11" s="4">
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="T11" s="4">
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="U11" s="4">
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="V11" s="4">
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="W11" s="4">
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="X11" s="4">
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="Y11" s="4">
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="Z11" s="4">
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="AB11" s="4">
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="AC11" s="4">
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="AD11" s="4">
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="AE11" s="4">
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="AF11" s="4">
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="AG11" s="4">
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -17846,94 +17846,94 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>1.0610370953958444E-3</v>
+        <v>1.1058184387710214E-3</v>
       </c>
       <c r="C24">
-        <v>1.1182929641066262E-3</v>
+        <v>1.1654653618777037E-3</v>
       </c>
       <c r="D24">
-        <v>1.1230378075595187E-3</v>
+        <v>1.1704178038241025E-3</v>
       </c>
       <c r="E24">
-        <v>1.1207737467721995E-3</v>
+        <v>1.1680699023993095E-3</v>
       </c>
       <c r="F24">
-        <v>1.1241462933302886E-3</v>
+        <v>1.1715925157363262E-3</v>
       </c>
       <c r="G24">
-        <v>1.1243227034620279E-3</v>
+        <v>1.1717836975623729E-3</v>
       </c>
       <c r="H24">
-        <v>1.1197764855285623E-3</v>
+        <v>1.1670454732039669E-3</v>
       </c>
       <c r="I24">
-        <v>1.1191149559385343E-3</v>
+        <v>1.1663553647253712E-3</v>
       </c>
       <c r="J24">
-        <v>1.1130469624480827E-3</v>
+        <v>1.1600295837550369E-3</v>
       </c>
       <c r="K24">
-        <v>1.1088287076252618E-3</v>
+        <v>1.1556233631186427E-3</v>
       </c>
       <c r="L24">
-        <v>1.1076057889551705E-3</v>
+        <v>1.1543479301738477E-3</v>
       </c>
       <c r="M24">
-        <v>1.1071053032327867E-3</v>
+        <v>1.1538248111999468E-3</v>
       </c>
       <c r="N24">
-        <v>1.1067724143381994E-3</v>
+        <v>1.1534771013398996E-3</v>
       </c>
       <c r="O24">
-        <v>1.1066615139372906E-3</v>
+        <v>1.153358383316175E-3</v>
       </c>
       <c r="P24">
-        <v>1.1066769292084788E-3</v>
+        <v>1.1533777970732827E-3</v>
       </c>
       <c r="Q24">
-        <v>1.1066795967218581E-3</v>
+        <v>1.1533839998503657E-3</v>
       </c>
       <c r="R24">
-        <v>1.1064406824033406E-3</v>
+        <v>1.1531365054505626E-3</v>
       </c>
       <c r="S24">
-        <v>1.10616658964172E-3</v>
+        <v>1.1528517648706005E-3</v>
       </c>
       <c r="T24">
-        <v>1.1060290826740075E-3</v>
+        <v>1.1527114348871379E-3</v>
       </c>
       <c r="U24">
-        <v>1.1055011555537056E-3</v>
+        <v>1.1521628742468084E-3</v>
       </c>
       <c r="V24">
-        <v>1.1050415873555949E-3</v>
+        <v>1.1516853990217147E-3</v>
       </c>
       <c r="W24">
-        <v>1.1045586465345543E-3</v>
+        <v>1.1511845126241146E-3</v>
       </c>
       <c r="X24">
-        <v>1.1038843213708662E-3</v>
+        <v>1.1504833870552749E-3</v>
       </c>
       <c r="Y24">
-        <v>1.1032661366839319E-3</v>
+        <v>1.1498404422001507E-3</v>
       </c>
       <c r="Z24">
-        <v>1.1026899310228654E-3</v>
+        <v>1.1492400691721339E-3</v>
       </c>
       <c r="AA24">
-        <v>1.1033241851303997E-3</v>
+        <v>1.1499032994117962E-3</v>
       </c>
       <c r="AB24">
-        <v>1.1025809057094401E-3</v>
+        <v>1.1491304009395679E-3</v>
       </c>
       <c r="AC24">
-        <v>1.1023701654874632E-3</v>
+        <v>1.148913547482614E-3</v>
       </c>
       <c r="AD24">
-        <v>1.1025099635140992E-3</v>
+        <v>1.1490606826052038E-3</v>
       </c>
       <c r="AE24">
-        <v>1.1022449653531074E-3</v>
+        <v>1.1487858957225897E-3</v>
       </c>
     </row>
     <row r="25" spans="1:37">
@@ -17941,94 +17941,94 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>3.9757641638912632E-4</v>
+        <v>4.1435623124899391E-4</v>
       </c>
       <c r="C25">
-        <v>3.9900747239960505E-4</v>
+        <v>4.1583860682125711E-4</v>
       </c>
       <c r="D25">
-        <v>4.094728037527083E-4</v>
+        <v>4.2674810809389702E-4</v>
       </c>
       <c r="E25">
-        <v>4.1042134222259559E-4</v>
+        <v>4.2774094105362768E-4</v>
       </c>
       <c r="F25">
-        <v>4.2303467685595353E-4</v>
+        <v>4.4088946807188358E-4</v>
       </c>
       <c r="G25">
-        <v>4.2712563186039055E-4</v>
+        <v>4.4515587089355332E-4</v>
       </c>
       <c r="H25">
-        <v>4.2901230740863917E-4</v>
+        <v>4.4712215141194824E-4</v>
       </c>
       <c r="I25">
-        <v>4.4013468861937947E-4</v>
+        <v>4.5871378319881849E-4</v>
       </c>
       <c r="J25">
-        <v>4.4145313646605977E-4</v>
+        <v>4.60087233889707E-4</v>
       </c>
       <c r="K25">
-        <v>4.4134933786440692E-4</v>
+        <v>4.5997510943360454E-4</v>
       </c>
       <c r="L25">
-        <v>4.4091962109341271E-4</v>
+        <v>4.5952689761791997E-4</v>
       </c>
       <c r="M25">
-        <v>4.4021823423990848E-4</v>
+        <v>4.5879531018905696E-4</v>
       </c>
       <c r="N25">
-        <v>4.4027827540505136E-4</v>
+        <v>4.5885757750912214E-4</v>
       </c>
       <c r="O25">
-        <v>4.4040955993276986E-4</v>
+        <v>4.5899315341134275E-4</v>
       </c>
       <c r="P25">
-        <v>4.4116372836744042E-4</v>
+        <v>4.5978047950904734E-4</v>
       </c>
       <c r="Q25">
-        <v>4.4149861084351322E-4</v>
+        <v>4.6013085920391559E-4</v>
       </c>
       <c r="R25">
-        <v>4.4225600784943527E-4</v>
+        <v>4.6092082071518263E-4</v>
       </c>
       <c r="S25">
-        <v>4.4285604557792939E-4</v>
+        <v>4.615465505005841E-4</v>
       </c>
       <c r="T25">
-        <v>4.4414588143789507E-4</v>
+        <v>4.6289202003053275E-4</v>
       </c>
       <c r="U25">
-        <v>4.4411604405746724E-4</v>
+        <v>4.6286158567069468E-4</v>
       </c>
       <c r="V25">
-        <v>4.4420971921594975E-4</v>
+        <v>4.6295981398202245E-4</v>
       </c>
       <c r="W25">
-        <v>4.4397500702864155E-4</v>
+        <v>4.6271617508682986E-4</v>
       </c>
       <c r="X25">
-        <v>4.4370861117360116E-4</v>
+        <v>4.6243920306310218E-4</v>
       </c>
       <c r="Y25">
-        <v>4.424879140459794E-4</v>
+        <v>4.6116751148015295E-4</v>
       </c>
       <c r="Z25">
-        <v>4.4177355237873966E-4</v>
+        <v>4.6042305602918797E-4</v>
       </c>
       <c r="AA25">
-        <v>4.4054153352135982E-4</v>
+        <v>4.591399062500133E-4</v>
       </c>
       <c r="AB25">
-        <v>4.3982519474178468E-4</v>
+        <v>4.5839402783031833E-4</v>
       </c>
       <c r="AC25">
-        <v>4.3880580213641828E-4</v>
+        <v>4.573327059931574E-4</v>
       </c>
       <c r="AD25">
-        <v>4.4035893908705087E-4</v>
+        <v>4.5895199125989522E-4</v>
       </c>
       <c r="AE25">
-        <v>4.3940968502460365E-4</v>
+        <v>4.579632154985259E-4</v>
       </c>
     </row>
     <row r="26" spans="1:37">
@@ -18036,94 +18036,94 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>3.4525981498377545E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="C26">
-        <v>3.5982944807231638E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="D26">
-        <v>3.6710644959195353E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="E26">
-        <v>3.7373493890990666E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="F26">
-        <v>3.9582578415611009E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="G26">
-        <v>4.3494713071778808E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="H26">
-        <v>4.4227847691112512E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="I26">
-        <v>4.5901794912486538E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="J26">
-        <v>4.6412939868974872E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="K26">
-        <v>4.6774364798041294E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="L26">
-        <v>4.6966309910348734E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="M26">
-        <v>4.7260846794834008E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="N26">
-        <v>4.7526441798452414E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="O26">
-        <v>4.7788153153438258E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="P26">
-        <v>4.8072409114320114E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="Q26">
-        <v>4.8317943716800202E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="R26">
-        <v>4.8470967915637789E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="S26">
-        <v>4.8594611468298545E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="T26">
-        <v>4.8792763254902827E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="U26">
-        <v>4.8771717870415681E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="V26">
-        <v>4.8811136392356582E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="W26">
-        <v>4.8843918429084768E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="X26">
-        <v>4.8810682276656785E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="Y26">
-        <v>4.8747689393500613E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="Z26">
-        <v>4.8672999513277174E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="AA26">
-        <v>4.8843454079791745E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="AB26">
-        <v>4.8748772875184347E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="AC26">
-        <v>4.8711906355556337E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="AD26">
-        <v>4.8876138897384217E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="AE26">
-        <v>4.8839502633604009E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -18131,94 +18131,94 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>3.8826950759574409E-4</v>
+        <v>4.0465652197743196E-4</v>
       </c>
       <c r="C27">
-        <v>3.989339915927411E-4</v>
+        <v>4.1576202640994142E-4</v>
       </c>
       <c r="D27">
-        <v>4.0175941665032688E-4</v>
+        <v>4.1870929984394776E-4</v>
       </c>
       <c r="E27">
-        <v>4.046076403132251E-4</v>
+        <v>4.2168190349906829E-4</v>
       </c>
       <c r="F27">
-        <v>4.1514273478187707E-4</v>
+        <v>4.3266443515270633E-4</v>
       </c>
       <c r="G27">
-        <v>4.1963901427461011E-4</v>
+        <v>4.3735322098718013E-4</v>
       </c>
       <c r="H27">
-        <v>4.2143164929997338E-4</v>
+        <v>4.3922149191073594E-4</v>
       </c>
       <c r="I27">
-        <v>4.2796953665692094E-4</v>
+        <v>4.4603511227335165E-4</v>
       </c>
       <c r="J27">
-        <v>4.2869137838688967E-4</v>
+        <v>4.4678679157952655E-4</v>
       </c>
       <c r="K27">
-        <v>4.2889294118354267E-4</v>
+        <v>4.4699302940114473E-4</v>
       </c>
       <c r="L27">
-        <v>4.2958514978309507E-4</v>
+        <v>4.4771409957447328E-4</v>
       </c>
       <c r="M27">
-        <v>4.3016225956684587E-4</v>
+        <v>4.4831497643516992E-4</v>
       </c>
       <c r="N27">
-        <v>4.314632453320266E-4</v>
+        <v>4.496705619988588E-4</v>
       </c>
       <c r="O27">
-        <v>4.3270248083989658E-4</v>
+        <v>4.5096086515454705E-4</v>
       </c>
       <c r="P27">
-        <v>4.3430279078009501E-4</v>
+        <v>4.5263001592613935E-4</v>
       </c>
       <c r="Q27">
-        <v>4.3530324098676928E-4</v>
+        <v>4.5367403060863823E-4</v>
       </c>
       <c r="R27">
-        <v>4.3666804491927715E-4</v>
+        <v>4.5509702541521833E-4</v>
       </c>
       <c r="S27">
-        <v>4.3784695384923824E-4</v>
+        <v>4.5632605270766956E-4</v>
       </c>
       <c r="T27">
-        <v>4.3919387063071915E-4</v>
+        <v>4.5773099888512522E-4</v>
       </c>
       <c r="U27">
-        <v>4.3965998782187011E-4</v>
+        <v>4.5821744528746784E-4</v>
       </c>
       <c r="V27">
-        <v>4.4023054662472997E-4</v>
+        <v>4.5881268049317148E-4</v>
       </c>
       <c r="W27">
-        <v>4.4040065556194612E-4</v>
+        <v>4.5899094233070158E-4</v>
       </c>
       <c r="X27">
-        <v>4.4071018775672388E-4</v>
+        <v>4.5931420503415025E-4</v>
       </c>
       <c r="Y27">
-        <v>4.4012557028617579E-4</v>
+        <v>4.5870544153793057E-4</v>
       </c>
       <c r="Z27">
-        <v>4.3984103857540357E-4</v>
+        <v>4.584089610106891E-4</v>
       </c>
       <c r="AA27">
-        <v>4.3927502996579274E-4</v>
+        <v>4.5781993462527175E-4</v>
       </c>
       <c r="AB27">
-        <v>4.3896293494925283E-4</v>
+        <v>4.5749536457941731E-4</v>
       </c>
       <c r="AC27">
-        <v>4.3836887632577525E-4</v>
+        <v>4.5687733265413878E-4</v>
       </c>
       <c r="AD27">
-        <v>4.3967475364455565E-4</v>
+        <v>4.5823891780242144E-4</v>
       </c>
       <c r="AE27">
-        <v>4.3902895392029714E-4</v>
+        <v>4.5756640849424067E-4</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -18226,94 +18226,94 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>6.2864085446168573E-4</v>
+        <v>6.5517280333083554E-4</v>
       </c>
       <c r="C28">
-        <v>5.8065173143116884E-4</v>
+        <v>6.0514507559113824E-4</v>
       </c>
       <c r="D28">
-        <v>5.7715727565658991E-4</v>
+        <v>6.0150704320725845E-4</v>
       </c>
       <c r="E28">
-        <v>5.8939802003144003E-4</v>
+        <v>6.1427035538190694E-4</v>
       </c>
       <c r="F28">
-        <v>6.1132283966645277E-4</v>
+        <v>6.3712460549070139E-4</v>
       </c>
       <c r="G28">
-        <v>6.2116495269514782E-4</v>
+        <v>6.4738616664415639E-4</v>
       </c>
       <c r="H28">
-        <v>6.2859863293007745E-4</v>
+        <v>6.5513359005477795E-4</v>
       </c>
       <c r="I28">
-        <v>6.4471041145104213E-4</v>
+        <v>6.7192511645025751E-4</v>
       </c>
       <c r="J28">
-        <v>6.4840312593372079E-4</v>
+        <v>6.7577275142821603E-4</v>
       </c>
       <c r="K28">
-        <v>6.5182617183108646E-4</v>
+        <v>6.7933446138261709E-4</v>
       </c>
       <c r="L28">
-        <v>6.5274851137244263E-4</v>
+        <v>6.8029519215282537E-4</v>
       </c>
       <c r="M28">
-        <v>6.5479808482626608E-4</v>
+        <v>6.8243036537951835E-4</v>
       </c>
       <c r="N28">
-        <v>6.5728685533569657E-4</v>
+        <v>6.8502370209035806E-4</v>
       </c>
       <c r="O28">
-        <v>6.599953694386326E-4</v>
+        <v>6.8784464147818671E-4</v>
       </c>
       <c r="P28">
-        <v>6.6271823685959863E-4</v>
+        <v>6.9068440837210285E-4</v>
       </c>
       <c r="Q28">
-        <v>6.6541147575940635E-4</v>
+        <v>6.9349335772620044E-4</v>
       </c>
       <c r="R28">
-        <v>6.6758238321629323E-4</v>
+        <v>6.9575678906731286E-4</v>
       </c>
       <c r="S28">
-        <v>6.695223998790733E-4</v>
+        <v>6.9777923827096409E-4</v>
       </c>
       <c r="T28">
-        <v>6.7209439570581602E-4</v>
+        <v>7.0046159489822399E-4</v>
       </c>
       <c r="U28">
-        <v>6.7286737744009942E-4</v>
+        <v>7.0126820554068138E-4</v>
       </c>
       <c r="V28">
-        <v>6.7344823507195376E-4</v>
+        <v>7.0187448889172854E-4</v>
       </c>
       <c r="W28">
-        <v>6.73909086850441E-4</v>
+        <v>7.0235628151829209E-4</v>
       </c>
       <c r="X28">
-        <v>6.740064696202369E-4</v>
+        <v>7.0245879124624332E-4</v>
       </c>
       <c r="Y28">
-        <v>6.7364356730673243E-4</v>
+        <v>7.0208138504586923E-4</v>
       </c>
       <c r="Z28">
-        <v>6.7322262507433497E-4</v>
+        <v>7.0164276868927991E-4</v>
       </c>
       <c r="AA28">
-        <v>6.7344500418278937E-4</v>
+        <v>7.0187587901977887E-4</v>
       </c>
       <c r="AB28">
-        <v>6.7281217685356582E-4</v>
+        <v>7.0121740957167211E-4</v>
       </c>
       <c r="AC28">
-        <v>6.7245517568083519E-4</v>
+        <v>7.0084703451029598E-4</v>
       </c>
       <c r="AD28">
-        <v>6.7397575425436052E-4</v>
+        <v>7.0243269074363234E-4</v>
       </c>
       <c r="AE28">
-        <v>6.7349435170381685E-4</v>
+        <v>7.0193181770471214E-4</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -18321,94 +18321,94 @@
         <v>84</v>
       </c>
       <c r="B29">
-        <v>3.4585801076062443E-4</v>
+        <v>3.6045503701553509E-4</v>
       </c>
       <c r="C29">
-        <v>3.4495574783075341E-4</v>
+        <v>3.5950684514816466E-4</v>
       </c>
       <c r="D29">
-        <v>3.6039991749266362E-4</v>
+        <v>3.7560487909735457E-4</v>
       </c>
       <c r="E29">
-        <v>3.6434083049787565E-4</v>
+        <v>3.7971585214712964E-4</v>
       </c>
       <c r="F29">
-        <v>3.7594665871961683E-4</v>
+        <v>3.9181403193273731E-4</v>
       </c>
       <c r="G29">
-        <v>3.8265282942463545E-4</v>
+        <v>3.9880573963794092E-4</v>
       </c>
       <c r="H29">
-        <v>3.8491153807264589E-4</v>
+        <v>4.0115976169978224E-4</v>
       </c>
       <c r="I29">
-        <v>3.948653271158722E-4</v>
+        <v>4.1153349812879397E-4</v>
       </c>
       <c r="J29">
-        <v>3.9594612256427204E-4</v>
+        <v>4.1265933176568687E-4</v>
       </c>
       <c r="K29">
-        <v>3.9619175896624695E-4</v>
+        <v>4.129117958327599E-4</v>
       </c>
       <c r="L29">
-        <v>3.9654376773871745E-4</v>
+        <v>4.1327833609856163E-4</v>
       </c>
       <c r="M29">
-        <v>3.9707573055230652E-4</v>
+        <v>4.1383220593268312E-4</v>
       </c>
       <c r="N29">
-        <v>3.9834863581642401E-4</v>
+        <v>4.1515854913946708E-4</v>
       </c>
       <c r="O29">
-        <v>3.9959695124185265E-4</v>
+        <v>4.1645840924083266E-4</v>
       </c>
       <c r="P29">
-        <v>4.0092020917552979E-4</v>
+        <v>4.1783871648228943E-4</v>
       </c>
       <c r="Q29">
-        <v>4.0164593001903277E-4</v>
+        <v>4.185963043514945E-4</v>
       </c>
       <c r="R29">
-        <v>4.025864972614837E-4</v>
+        <v>4.1957711242621983E-4</v>
       </c>
       <c r="S29">
-        <v>4.0337312378417004E-4</v>
+        <v>4.2039727289771742E-4</v>
       </c>
       <c r="T29">
-        <v>4.0442495213179318E-4</v>
+        <v>4.2149458289914189E-4</v>
       </c>
       <c r="U29">
-        <v>4.0454932437130627E-4</v>
+        <v>4.2162480789881447E-4</v>
       </c>
       <c r="V29">
-        <v>4.0464803339247029E-4</v>
+        <v>4.2172822917568159E-4</v>
       </c>
       <c r="W29">
-        <v>4.0439328301694171E-4</v>
+        <v>4.2146361886612633E-4</v>
       </c>
       <c r="X29">
-        <v>4.040545754555679E-4</v>
+        <v>4.2111122291148745E-4</v>
       </c>
       <c r="Y29">
-        <v>4.0293590438237893E-4</v>
+        <v>4.1994581639741166E-4</v>
       </c>
       <c r="Z29">
-        <v>4.0211529090881346E-4</v>
+        <v>4.190906180766014E-4</v>
       </c>
       <c r="AA29">
-        <v>4.0078697353040108E-4</v>
+        <v>4.1770702521979762E-4</v>
       </c>
       <c r="AB29">
-        <v>4.0014215791000135E-4</v>
+        <v>4.170356261122462E-4</v>
       </c>
       <c r="AC29">
-        <v>3.9916649340924858E-4</v>
+        <v>4.1601977841646405E-4</v>
       </c>
       <c r="AD29">
-        <v>3.9985648048380197E-4</v>
+        <v>4.1673941788640924E-4</v>
       </c>
       <c r="AE29">
-        <v>3.9882869849444967E-4</v>
+        <v>4.1566874700402494E-4</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -18416,94 +18416,94 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <v>5.5949994465194052E-4</v>
+        <v>5.8311378364830837E-4</v>
       </c>
       <c r="C30">
-        <v>5.490709016341414E-4</v>
+        <v>5.7223208730528745E-4</v>
       </c>
       <c r="D30">
-        <v>5.4591562691943185E-4</v>
+        <v>5.6894733626181731E-4</v>
       </c>
       <c r="E30">
-        <v>5.4428202142592678E-4</v>
+        <v>5.6725048162098066E-4</v>
       </c>
       <c r="F30">
-        <v>5.4687829275625965E-4</v>
+        <v>5.6996008314341522E-4</v>
       </c>
       <c r="G30">
-        <v>5.4645085655929157E-4</v>
+        <v>5.6951816703823988E-4</v>
       </c>
       <c r="H30">
-        <v>5.4701855850944456E-4</v>
+        <v>5.7010978594149338E-4</v>
       </c>
       <c r="I30">
-        <v>5.5159545353608997E-4</v>
+        <v>5.7487956261865754E-4</v>
       </c>
       <c r="J30">
-        <v>5.5116986450326347E-4</v>
+        <v>5.7443519462267441E-4</v>
       </c>
       <c r="K30">
-        <v>5.5082515994957833E-4</v>
+        <v>5.7407101696939681E-4</v>
       </c>
       <c r="L30">
-        <v>5.5045116908780244E-4</v>
+        <v>5.7368079332420063E-4</v>
       </c>
       <c r="M30">
-        <v>5.5016894781847396E-4</v>
+        <v>5.7338591052819412E-4</v>
       </c>
       <c r="N30">
-        <v>5.5030632856499669E-4</v>
+        <v>5.7352870427450646E-4</v>
       </c>
       <c r="O30">
-        <v>5.5080345075069956E-4</v>
+        <v>5.7404524281558721E-4</v>
       </c>
       <c r="P30">
-        <v>5.5167571643641449E-4</v>
+        <v>5.7495598374617473E-4</v>
       </c>
       <c r="Q30">
-        <v>5.5236107717376317E-4</v>
+        <v>5.7567197447162301E-4</v>
       </c>
       <c r="R30">
-        <v>5.5273978734272802E-4</v>
+        <v>5.7606741774479436E-4</v>
       </c>
       <c r="S30">
-        <v>5.5274410279881891E-4</v>
+        <v>5.7607237499356242E-4</v>
       </c>
       <c r="T30">
-        <v>5.5289670193281145E-4</v>
+        <v>5.762329043721763E-4</v>
       </c>
       <c r="U30">
-        <v>5.5265714178147211E-4</v>
+        <v>5.7598405732017636E-4</v>
       </c>
       <c r="V30">
-        <v>5.5244896195009953E-4</v>
+        <v>5.7576783576552626E-4</v>
       </c>
       <c r="W30">
-        <v>5.5221137170350255E-4</v>
+        <v>5.7552143636232329E-4</v>
       </c>
       <c r="X30">
-        <v>5.5188530920952062E-4</v>
+        <v>5.7518244213933473E-4</v>
       </c>
       <c r="Y30">
-        <v>5.5130828970691593E-4</v>
+        <v>5.7458173195686134E-4</v>
       </c>
       <c r="Z30">
-        <v>5.5089526377585969E-4</v>
+        <v>5.7415134865799545E-4</v>
       </c>
       <c r="AA30">
-        <v>5.5094868459087108E-4</v>
+        <v>5.7420812373722705E-4</v>
       </c>
       <c r="AB30">
-        <v>5.5070873103541993E-4</v>
+        <v>5.7395891913116653E-4</v>
       </c>
       <c r="AC30">
-        <v>5.5038144396247959E-4</v>
+        <v>5.7361920437307709E-4</v>
       </c>
       <c r="AD30">
-        <v>5.5068737415113456E-4</v>
+        <v>5.7393876788858417E-4</v>
       </c>
       <c r="AE30">
-        <v>5.5020714130888889E-4</v>
+        <v>5.7343895733650446E-4</v>
       </c>
     </row>
   </sheetData>
@@ -18519,7 +18519,7 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -18896,9 +18896,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19005,11 +19005,11 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.40625" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="B16">
         <f>TREND(C16:D16,C13:D13,B13)</f>
-        <v>3.1424986163219263E-4</v>
+        <v>3.142498616321935E-4</v>
       </c>
       <c r="C16">
         <f>C15*$B$2/$B$9</f>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19179,7 +19179,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="29.5">
       <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="29.5">
       <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
@@ -19289,11 +19289,11 @@
       <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" style="24"/>
+    <col min="15" max="15" width="11.40625" customWidth="1"/>
+    <col min="40" max="40" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19539,175 +19539,175 @@
       </c>
       <c r="AB2" s="4">
         <f>($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AA2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" ref="AC2:AN2" si="0">($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AB2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>3.227486354806981E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>3.255815600968667E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>3.284144847130353E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>3.312474093292039E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3408033394537249E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3691325856154109E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3974618317770969E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4257910779387829E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="AL2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4541203241004689E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="AM2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4824495702621549E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="AN2" s="26">
         <f t="shared" si="0"/>
-        <v>3.5107788164238408E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="AO2" s="10">
         <f>BNVFE!D8</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="AP2" s="10">
         <f>BNVFE!E8</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="AQ2" s="10">
         <f>BNVFE!F8</f>
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="AR2" s="10">
         <f>BNVFE!G8</f>
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="AS2" s="10">
         <f>BNVFE!H8</f>
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="AT2" s="10">
         <f>BNVFE!I8</f>
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="AU2" s="10">
         <f>BNVFE!J8</f>
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="AV2" s="10">
         <f>BNVFE!K8</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="AW2" s="10">
         <f>BNVFE!L8</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="AX2" s="10">
         <f>BNVFE!M8</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="AY2" s="10">
         <f>BNVFE!N8</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="AZ2" s="10">
         <f>BNVFE!O8</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="BA2" s="10">
         <f>BNVFE!P8</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="BB2" s="10">
         <f>BNVFE!Q8</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="BC2" s="10">
         <f>BNVFE!R8</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="BD2" s="10">
         <f>BNVFE!S8</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="BE2" s="10">
         <f>BNVFE!T8</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="BF2" s="10">
         <f>BNVFE!U8</f>
-        <v>4.1601549646964788E-4</v>
+        <v>4.5326957425061224E-4</v>
       </c>
       <c r="BG2" s="10">
         <f>BNVFE!V8</f>
-        <v>4.1779365223495714E-4</v>
+        <v>4.5520696339484528E-4</v>
       </c>
       <c r="BH2" s="10">
         <f>BNVFE!W8</f>
-        <v>4.1809544457369974E-4</v>
+        <v>4.5553578115777672E-4</v>
       </c>
       <c r="BI2" s="10">
         <f>BNVFE!X8</f>
-        <v>4.1838332983416382E-4</v>
+        <v>4.5584944646724456E-4</v>
       </c>
       <c r="BJ2" s="10">
         <f>BNVFE!Y8</f>
-        <v>4.1848122624012197E-4</v>
+        <v>4.559561094704881E-4</v>
       </c>
       <c r="BK2" s="10">
         <f>BNVFE!Z8</f>
-        <v>4.1826563698301188E-4</v>
+        <v>4.5572121425237108E-4</v>
       </c>
       <c r="BL2" s="10">
         <f>BNVFE!AA8</f>
-        <v>4.1769414168042572E-4</v>
+        <v>4.550985416964502E-4</v>
       </c>
       <c r="BM2" s="10">
         <f>BNVFE!AB8</f>
-        <v>4.1714393092982577E-4</v>
+        <v>4.5449905971852166E-4</v>
       </c>
       <c r="BN2" s="10">
         <f>BNVFE!AC8</f>
-        <v>4.1708664938544884E-4</v>
+        <v>4.5443664862698183E-4</v>
       </c>
       <c r="BO2" s="10">
         <f>BNVFE!AD8</f>
-        <v>4.165029094218215E-4</v>
+        <v>4.5380063490385911E-4</v>
       </c>
       <c r="BP2" s="10">
         <f>BNVFE!AE8</f>
-        <v>4.1616572999280917E-4</v>
+        <v>4.5343326114607497E-4</v>
       </c>
       <c r="BQ2" s="10">
         <f>BNVFE!AF8</f>
-        <v>4.1755377409260071E-4</v>
+        <v>4.5494560422822621E-4</v>
       </c>
       <c r="BR2" s="10">
         <f>BNVFE!AG8</f>
-        <v>4.1711981834238049E-4</v>
+        <v>4.5447278785524218E-4</v>
       </c>
       <c r="BS2" s="10"/>
       <c r="BT2" s="4"/>
@@ -19745,179 +19745,179 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="4" cm="1">
         <f t="array" ref="AA3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AA1)</f>
-        <v>7.5108389563240119E-5</v>
+        <v>5.0412726378568952E-5</v>
       </c>
       <c r="AB3" s="4" cm="1">
         <f t="array" ref="AB3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AB1)</f>
-        <v>7.7552820431472588E-5</v>
+        <v>5.4271492176534604E-5</v>
       </c>
       <c r="AC3" s="4" cm="1">
         <f t="array" ref="AC3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AC1)</f>
-        <v>7.9997251299705058E-5</v>
+        <v>5.8130257974500256E-5</v>
       </c>
       <c r="AD3" s="4" cm="1">
         <f t="array" ref="AD3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AD1)</f>
-        <v>8.2441682167937527E-5</v>
+        <v>6.1989023772465041E-5</v>
       </c>
       <c r="AE3" s="4" cm="1">
         <f t="array" ref="AE3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AE1)</f>
-        <v>8.4886113036169997E-5</v>
+        <v>6.5847789570430693E-5</v>
       </c>
       <c r="AF3" s="4" cm="1">
         <f t="array" ref="AF3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AF1)</f>
-        <v>8.7330543904402466E-5</v>
+        <v>6.9706555368396345E-5</v>
       </c>
       <c r="AG3" s="4" cm="1">
         <f t="array" ref="AG3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AG1)</f>
-        <v>8.9774974772634936E-5</v>
+        <v>7.3565321166361129E-5</v>
       </c>
       <c r="AH3" s="4" cm="1">
         <f t="array" ref="AH3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AH1)</f>
-        <v>9.2219405640867405E-5</v>
+        <v>7.7424086964326781E-5</v>
       </c>
       <c r="AI3" s="4" cm="1">
         <f t="array" ref="AI3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AI1)</f>
-        <v>9.4663836509099875E-5</v>
+        <v>8.1282852762291566E-5</v>
       </c>
       <c r="AJ3" s="4" cm="1">
         <f t="array" ref="AJ3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AJ1)</f>
-        <v>9.7108267377332344E-5</v>
+        <v>8.5141618560257218E-5</v>
       </c>
       <c r="AK3" s="4" cm="1">
         <f t="array" ref="AK3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AK1)</f>
-        <v>9.9552698245564814E-5</v>
+        <v>8.900038435822287E-5</v>
       </c>
       <c r="AL3" s="4" cm="1">
         <f t="array" ref="AL3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AL1)</f>
-        <v>1.0199712911379728E-4</v>
+        <v>9.2859150156187655E-5</v>
       </c>
       <c r="AM3" s="4" cm="1">
         <f t="array" ref="AM3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AM1)</f>
-        <v>1.0444155998202975E-4</v>
+        <v>9.6717915954153307E-5</v>
       </c>
       <c r="AN3" s="26" cm="1">
         <f t="array" ref="AN3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AN1)</f>
-        <v>1.0688599085026222E-4</v>
+        <v>1.0057668175211809E-4</v>
       </c>
       <c r="AO3" s="10">
         <f>BNVFE!D9</f>
-        <v>1.0748894488887501E-4</v>
+        <v>1.0420515928406728E-4</v>
       </c>
       <c r="AP3" s="10">
         <f>BNVFE!E9</f>
-        <v>1.1376628742778099E-4</v>
+        <v>1.0877081887028839E-4</v>
       </c>
       <c r="AQ3" s="10">
         <f>BNVFE!F9</f>
-        <v>1.1487084665170681E-4</v>
+        <v>1.119228749342E-4</v>
       </c>
       <c r="AR3" s="10">
         <f>BNVFE!G9</f>
-        <v>1.1675219072501874E-4</v>
+        <v>1.1596328986495364E-4</v>
       </c>
       <c r="AS3" s="10">
         <f>BNVFE!H9</f>
-        <v>1.1821814758141852E-4</v>
+        <v>1.1990275277656129E-4</v>
       </c>
       <c r="AT3" s="10">
         <f>BNVFE!I9</f>
-        <v>1.1769306557695523E-4</v>
+        <v>1.2199635295884858E-4</v>
       </c>
       <c r="AU3" s="10">
         <f>BNVFE!J9</f>
-        <v>1.1740735707916262E-4</v>
+        <v>1.243467097653028E-4</v>
       </c>
       <c r="AV3" s="10">
         <f>BNVFE!K9</f>
-        <v>1.1551151797500483E-4</v>
+        <v>1.2468075205096364E-4</v>
       </c>
       <c r="AW3" s="10">
         <f>BNVFE!L9</f>
-        <v>1.1449785838376007E-4</v>
+        <v>1.2577381385553893E-4</v>
       </c>
       <c r="AX3" s="10">
         <f>BNVFE!M9</f>
-        <v>1.13287341804607E-4</v>
+        <v>1.2646319222836433E-4</v>
       </c>
       <c r="AY3" s="10">
         <f>BNVFE!N9</f>
-        <v>1.1212406398402511E-4</v>
+        <v>1.2698406877407795E-4</v>
       </c>
       <c r="AZ3" s="10">
         <f>BNVFE!O9</f>
-        <v>1.1076186329973974E-4</v>
+        <v>1.2710494044541212E-4</v>
       </c>
       <c r="BA3" s="10">
         <f>BNVFE!P9</f>
-        <v>1.0947685788155618E-4</v>
+        <v>1.2713124547346271E-4</v>
       </c>
       <c r="BB3" s="10">
         <f>BNVFE!Q9</f>
-        <v>1.0833659526703707E-4</v>
+        <v>1.2714496314152464E-4</v>
       </c>
       <c r="BC3" s="10">
         <f>BNVFE!R9</f>
-        <v>1.0725258337875167E-4</v>
+        <v>1.2712313200368365E-4</v>
       </c>
       <c r="BD3" s="10">
         <f>BNVFE!S9</f>
-        <v>1.0627237374881068E-4</v>
+        <v>1.271005238267318E-4</v>
       </c>
       <c r="BE3" s="10">
         <f>BNVFE!T9</f>
-        <v>1.053872190542009E-4</v>
+        <v>1.2708001023750603E-4</v>
       </c>
       <c r="BF3" s="10">
         <f>BNVFE!U9</f>
-        <v>1.0457070988285631E-4</v>
+        <v>1.2705407014004141E-4</v>
       </c>
       <c r="BG3" s="10">
         <f>BNVFE!V9</f>
-        <v>1.0382785746559407E-4</v>
+        <v>1.2702629811717708E-4</v>
       </c>
       <c r="BH3" s="10">
         <f>BNVFE!W9</f>
-        <v>1.0317553743970813E-4</v>
+        <v>1.2701194080551808E-4</v>
       </c>
       <c r="BI3" s="10">
         <f>BNVFE!X9</f>
-        <v>1.0260660677729319E-4</v>
+        <v>1.2701796387221964E-4</v>
       </c>
       <c r="BJ3" s="10">
         <f>BNVFE!Y9</f>
-        <v>1.0212195692865432E-4</v>
+        <v>1.2701802056749482E-4</v>
       </c>
       <c r="BK3" s="10">
         <f>BNVFE!Z9</f>
-        <v>1.0164270384030296E-4</v>
+        <v>1.270327910946451E-4</v>
       </c>
       <c r="BL3" s="10">
         <f>BNVFE!AA9</f>
-        <v>1.0120623842325044E-4</v>
+        <v>1.2702817221538397E-4</v>
       </c>
       <c r="BM3" s="10">
         <f>BNVFE!AB9</f>
-        <v>1.0086620530512349E-4</v>
+        <v>1.2698131801807758E-4</v>
       </c>
       <c r="BN3" s="10">
         <f>BNVFE!AC9</f>
-        <v>1.0054219744424832E-4</v>
+        <v>1.2695571200958938E-4</v>
       </c>
       <c r="BO3" s="10">
         <f>BNVFE!AD9</f>
-        <v>9.9850684341711718E-5</v>
+        <v>1.2640538596243631E-4</v>
       </c>
       <c r="BP3" s="10">
         <f>BNVFE!AE9</f>
-        <v>9.9621972535475967E-5</v>
+        <v>1.2643551327178303E-4</v>
       </c>
       <c r="BQ3" s="10">
         <f>BNVFE!AF9</f>
-        <v>9.9483752435656976E-5</v>
+        <v>1.2650241733350927E-4</v>
       </c>
       <c r="BR3" s="10">
         <f>BNVFE!AG9</f>
-        <v>9.9383928406132565E-5</v>
+        <v>1.2663654108394285E-4</v>
       </c>
       <c r="BS3" s="10"/>
       <c r="BT3" s="4"/>
@@ -19940,119 +19940,119 @@
       <c r="K4" s="9"/>
       <c r="L4" s="4">
         <f>L5/M5*M4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1807374066651307E-3</v>
+        <v>1.1628806678959742E-3</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="1"/>
-        <v>1.177387347221569E-3</v>
+        <v>1.1604234453908705E-3</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1740372877780075E-3</v>
+        <v>1.1579662228857668E-3</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1706872283344459E-3</v>
+        <v>1.1555090003806633E-3</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1673371688908844E-3</v>
+        <v>1.1530517778755595E-3</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="1"/>
-        <v>1.163987109447323E-3</v>
+        <v>1.1505945553704558E-3</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1606370500037615E-3</v>
+        <v>1.1481373328653521E-3</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1572869905602E-3</v>
+        <v>1.1456801103602485E-3</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1539369311166386E-3</v>
+        <v>1.1432228878551448E-3</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1505868716730771E-3</v>
+        <v>1.1407656653500411E-3</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1472368122295155E-3</v>
+        <v>1.1383084428449376E-3</v>
       </c>
       <c r="AG4" s="4">
         <f>AG5/AH5*AH4</f>
-        <v>1.143886752785954E-3</v>
+        <v>1.1358512203398338E-3</v>
       </c>
       <c r="AH4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1405366933423926E-3</v>
+        <v>1.1333939978347303E-3</v>
       </c>
       <c r="AI4" s="4">
         <f t="shared" si="1"/>
-        <v>1.1371866338988309E-3</v>
+        <v>1.1309367753296266E-3</v>
       </c>
       <c r="AJ4" s="4">
         <f>AJ5/AK5*AK4</f>
-        <v>1.1338365744552694E-3</v>
+        <v>1.1284795528245229E-3</v>
       </c>
       <c r="AK4" s="19">
         <f>AK5/AL5*AL4</f>
-        <v>1.130486515011708E-3</v>
+        <v>1.1260223303194191E-3</v>
       </c>
       <c r="AL4" s="19">
         <f>AL5/AM5*AM4</f>
-        <v>1.1271364555681463E-3</v>
+        <v>1.1235651078143154E-3</v>
       </c>
       <c r="AM4" s="19">
         <f>AM5/AN5*AN4</f>
-        <v>1.1237863961245848E-3</v>
+        <v>1.1211078853092119E-3</v>
       </c>
       <c r="AN4" s="27">
         <f>AN5/AO5*AO4</f>
-        <v>1.1204363366810234E-3</v>
+        <v>1.1186506628041082E-3</v>
       </c>
       <c r="AO4" s="10">
         <f>BNVFE!D10</f>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="AT4" s="10">
         <f>BNVFE!I10</f>
-        <v>1.3325458991476347E-3</v>
+        <v>1.3325458991476349E-3</v>
       </c>
       <c r="AU4" s="10">
         <f>BNVFE!J10</f>
@@ -20084,7 +20084,7 @@
       </c>
       <c r="AV4" s="10">
         <f>BNVFE!K10</f>
-        <v>1.3753174198569201E-3</v>
+        <v>1.3753174198569197E-3</v>
       </c>
       <c r="AW4" s="10">
         <f>BNVFE!L10</f>
@@ -20092,11 +20092,11 @@
       </c>
       <c r="AX4" s="10">
         <f>BNVFE!M10</f>
-        <v>1.4146533498165595E-3</v>
+        <v>1.4146533498165597E-3</v>
       </c>
       <c r="AY4" s="10">
         <f>BNVFE!N10</f>
-        <v>1.4334182752321722E-3</v>
+        <v>1.433418275232172E-3</v>
       </c>
       <c r="AZ4" s="10">
         <f>BNVFE!O10</f>
@@ -20104,15 +20104,15 @@
       </c>
       <c r="BA4" s="10">
         <f>BNVFE!P10</f>
-        <v>1.4455847020325701E-3</v>
+        <v>1.4455847020325705E-3</v>
       </c>
       <c r="BB4" s="10">
         <f>BNVFE!Q10</f>
-        <v>1.4457021763821076E-3</v>
+        <v>1.4457021763821074E-3</v>
       </c>
       <c r="BC4" s="10">
         <f>BNVFE!R10</f>
-        <v>1.4456854451868699E-3</v>
+        <v>1.4456854451868704E-3</v>
       </c>
       <c r="BD4" s="10">
         <f>BNVFE!S10</f>
@@ -20128,11 +20128,11 @@
       </c>
       <c r="BG4" s="10">
         <f>BNVFE!V10</f>
-        <v>1.4452171497116701E-3</v>
+        <v>1.4452171497116699E-3</v>
       </c>
       <c r="BH4" s="10">
         <f>BNVFE!W10</f>
-        <v>1.4450916657473916E-3</v>
+        <v>1.4450916657473914E-3</v>
       </c>
       <c r="BI4" s="10">
         <f>BNVFE!X10</f>
@@ -20140,15 +20140,15 @@
       </c>
       <c r="BJ4" s="10">
         <f>BNVFE!Y10</f>
-        <v>1.443856049179987E-3</v>
+        <v>1.4438560491799872E-3</v>
       </c>
       <c r="BK4" s="10">
         <f>BNVFE!Z10</f>
-        <v>1.4432142120520614E-3</v>
+        <v>1.4432142120520612E-3</v>
       </c>
       <c r="BL4" s="10">
         <f>BNVFE!AA10</f>
-        <v>1.443266541535037E-3</v>
+        <v>1.4432665415350372E-3</v>
       </c>
       <c r="BM4" s="10">
         <f>BNVFE!AB10</f>
@@ -20239,195 +20239,195 @@
       </c>
       <c r="W5" s="4">
         <f>($AO$5-$V$5)/COUNT($V$1:$AO$1)+V5</f>
-        <v>7.7819056047563108E-4</v>
+        <v>7.7875573937035282E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" ref="X5:AN5" si="3">($AO$5-$V$5)/COUNT($V$1:$AO$1)+W5</f>
-        <v>7.7597634894858872E-4</v>
+        <v>7.771067067380322E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="3"/>
-        <v>7.7376213742154636E-4</v>
+        <v>7.7545767410571158E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="3"/>
-        <v>7.71547925894504E-4</v>
+        <v>7.7380864147339097E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6933371436746164E-4</v>
+        <v>7.7215960884107035E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6711950284041929E-4</v>
+        <v>7.7051057620874973E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6490529131337693E-4</v>
+        <v>7.6886154357642912E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6269107978633457E-4</v>
+        <v>7.672125109441085E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="3"/>
-        <v>7.6047686825929221E-4</v>
+        <v>7.6556347831178788E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5826265673224985E-4</v>
+        <v>7.6391444567946727E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5604844520520749E-4</v>
+        <v>7.6226541304714665E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5383423367816514E-4</v>
+        <v>7.6061638041482603E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5162002215112278E-4</v>
+        <v>7.5896734778250542E-4</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4940581062408042E-4</v>
+        <v>7.573183151501848E-4</v>
       </c>
       <c r="AK5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4719159909703806E-4</v>
+        <v>7.5566928251786418E-4</v>
       </c>
       <c r="AL5" s="4">
         <f t="shared" si="3"/>
-        <v>7.449773875699957E-4</v>
+        <v>7.5402024988554357E-4</v>
       </c>
       <c r="AM5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4276317604295334E-4</v>
+        <v>7.5237121725322295E-4</v>
       </c>
       <c r="AN5" s="26">
         <f t="shared" si="3"/>
-        <v>7.4054896451591099E-4</v>
+        <v>7.5072218462090233E-4</v>
       </c>
       <c r="AO5" s="10">
         <f>BNVFE!D11</f>
-        <v>7.3612054146182692E-4</v>
+        <v>7.4742411935626142E-4</v>
       </c>
       <c r="AP5" s="10">
         <f>BNVFE!E11</f>
-        <v>7.8447318350072194E-4</v>
+        <v>7.9651924557390657E-4</v>
       </c>
       <c r="AQ5" s="10">
         <f>BNVFE!F11</f>
-        <v>8.0913266389472246E-4</v>
+        <v>8.2155738726285784E-4</v>
       </c>
       <c r="AR5" s="10">
         <f>BNVFE!G11</f>
-        <v>8.3445529729440947E-4</v>
+        <v>8.4726886507457174E-4</v>
       </c>
       <c r="AS5" s="10">
         <f>BNVFE!H11</f>
-        <v>8.582213975349269E-4</v>
+        <v>8.7139990821531331E-4</v>
       </c>
       <c r="AT5" s="10">
         <f>BNVFE!I11</f>
-        <v>8.8074213007663328E-4</v>
+        <v>8.9426646028002797E-4</v>
       </c>
       <c r="AU5" s="10">
         <f>BNVFE!J11</f>
-        <v>9.0057319308330108E-4</v>
+        <v>9.1440204130079723E-4</v>
       </c>
       <c r="AV5" s="10">
         <f>BNVFE!K11</f>
-        <v>9.0901183566816969E-4</v>
+        <v>9.2297026436659075E-4</v>
       </c>
       <c r="AW5" s="10">
         <f>BNVFE!L11</f>
-        <v>9.2181220627128113E-4</v>
+        <v>9.3596719243283541E-4</v>
       </c>
       <c r="AX5" s="10">
         <f>BNVFE!M11</f>
-        <v>9.3501079807791388E-4</v>
+        <v>9.4936845663098554E-4</v>
       </c>
       <c r="AY5" s="10">
         <f>BNVFE!N11</f>
-        <v>9.4741341804908898E-4</v>
+        <v>9.6196152636282171E-4</v>
       </c>
       <c r="AZ5" s="10">
         <f>BNVFE!O11</f>
-        <v>9.5479798028431191E-4</v>
+        <v>9.6945948303515201E-4</v>
       </c>
       <c r="BA5" s="10">
         <f>BNVFE!P11</f>
-        <v>9.5545478057360543E-4</v>
+        <v>9.7012636889170394E-4</v>
       </c>
       <c r="BB5" s="10">
         <f>BNVFE!Q11</f>
-        <v>9.5553242488507497E-4</v>
+        <v>9.7020520547872228E-4</v>
       </c>
       <c r="BC5" s="10">
         <f>BNVFE!R11</f>
-        <v>9.5552136645283517E-4</v>
+        <v>9.7019397723754094E-4</v>
       </c>
       <c r="BD5" s="10">
         <f>BNVFE!S11</f>
-        <v>9.5553324838534815E-4</v>
+        <v>9.7020604162434225E-4</v>
       </c>
       <c r="BE5" s="10">
         <f>BNVFE!T11</f>
-        <v>9.5550160244627959E-4</v>
+        <v>9.7017390974266364E-4</v>
       </c>
       <c r="BF5" s="10">
         <f>BNVFE!U11</f>
-        <v>9.5544042814027313E-4</v>
+        <v>9.7011179606804271E-4</v>
       </c>
       <c r="BG5" s="10">
         <f>BNVFE!V11</f>
-        <v>9.5521184799302321E-4</v>
+        <v>9.6987970593383536E-4</v>
       </c>
       <c r="BH5" s="10">
         <f>BNVFE!W11</f>
-        <v>9.5512890975122625E-4</v>
+        <v>9.6979549412497463E-4</v>
       </c>
       <c r="BI5" s="10">
         <f>BNVFE!X11</f>
-        <v>9.5497115062746795E-4</v>
+        <v>9.6963531251407814E-4</v>
       </c>
       <c r="BJ5" s="10">
         <f>BNVFE!Y11</f>
-        <v>9.5431223276604333E-4</v>
+        <v>9.6896627656878928E-4</v>
       </c>
       <c r="BK5" s="10">
         <f>BNVFE!Z11</f>
-        <v>9.5388801248246955E-4</v>
+        <v>9.6853554212517003E-4</v>
       </c>
       <c r="BL5" s="10">
         <f>BNVFE!AA11</f>
-        <v>9.5392259949394229E-4</v>
+        <v>9.6857066024120565E-4</v>
       </c>
       <c r="BM5" s="10">
         <f>BNVFE!AB11</f>
-        <v>9.5402741931442593E-4</v>
+        <v>9.6867708963368051E-4</v>
       </c>
       <c r="BN5" s="10">
         <f>BNVFE!AC11</f>
-        <v>9.5426270510675759E-4</v>
+        <v>9.6891598838222154E-4</v>
       </c>
       <c r="BO5" s="10">
         <f>BNVFE!AD11</f>
-        <v>9.5454316577121671E-4</v>
+        <v>9.6920075569048212E-4</v>
       </c>
       <c r="BP5" s="10">
         <f>BNVFE!AE11</f>
-        <v>9.5490315303348411E-4</v>
+        <v>9.6956627077574963E-4</v>
       </c>
       <c r="BQ5" s="10">
         <f>BNVFE!AF11</f>
-        <v>9.5518761355641295E-4</v>
+        <v>9.6985509936273564E-4</v>
       </c>
       <c r="BR5" s="10">
         <f>BNVFE!AG11</f>
-        <v>9.555246604539279E-4</v>
+        <v>9.701973218200204E-4</v>
       </c>
       <c r="BS5" s="10"/>
       <c r="BT5" s="4"/>
@@ -22743,12 +22743,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -22976,123 +22976,123 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.6512977295439592E-4</v>
+        <v>3.4315885705159878E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5474795033263841E-4</v>
+        <v>3.4251537077170018E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5999582362156076E-4</v>
+        <v>3.5067496258556929E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.575411527957111E-4</v>
+        <v>3.5195903261955489E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.5098955393113139E-4</v>
+        <v>3.5537454196456301E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.2529070551256162E-4</v>
+        <v>3.6001444402488291E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.2405957424546739E-4</v>
+        <v>3.639117399264578E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.2305318872919765E-4</v>
+        <v>3.6765602654358315E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.2314699001954232E-4</v>
+        <v>3.7314346130715945E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.2324770853401079E-4</v>
+        <v>3.7816127565462235E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.2427274517001246E-4</v>
+        <v>3.8287720134892478E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.2437797979064292E-4</v>
+        <v>3.8695589546632644E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.2523361399085606E-4</v>
+        <v>3.9124659466938441E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.2615971146515569E-4</v>
+        <v>3.9544274917153121E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.3177243986842866E-4</v>
+        <v>4.0318106889032553E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3631690935380739E-4</v>
+        <v>4.0934602784305208E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.4057057772530629E-4</v>
+        <v>4.1460859761082873E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.5254040910253097E-4</v>
+        <v>4.2918095492519738E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5622167214823523E-4</v>
+        <v>4.335787303895307E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5932586621187509E-4</v>
+        <v>4.3685345470599412E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6998069835868409E-4</v>
+        <v>4.4986152668336464E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.7043547142435307E-4</v>
+        <v>4.506125079279828E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.7063277045978053E-4</v>
+        <v>4.5077860462753374E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.7027223527136152E-4</v>
+        <v>4.5037480829452432E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.707899458345789E-4</v>
+        <v>4.5090752346333351E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6942231456915355E-4</v>
+        <v>4.5088043127990992E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.7062339495815715E-4</v>
+        <v>4.5210293408135845E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7138471662628673E-4</v>
+        <v>4.5305688916845286E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7275932113182964E-4</v>
+        <v>4.5475075705116326E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7333739446942469E-4</v>
+        <v>4.5558862387767087E-4</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -23103,123 +23103,123 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>3.170827862483609E-4</v>
+        <v>3.1934654476143933E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>3.199157108645295E-4</v>
+        <v>3.2444322789068635E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>3.227486354806981E-4</v>
+        <v>3.2953991101993338E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>3.255815600968667E-4</v>
+        <v>3.346365941491804E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>3.284144847130353E-4</v>
+        <v>3.3973327727842743E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>3.312474093292039E-4</v>
+        <v>3.4482996040767445E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>3.3408033394537249E-4</v>
+        <v>3.4992664353692148E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>3.3691325856154109E-4</v>
+        <v>3.550233266661685E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>3.3974618317770969E-4</v>
+        <v>3.6012000979541552E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>3.4257910779387829E-4</v>
+        <v>3.6521669292466255E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>3.4541203241004689E-4</v>
+        <v>3.7031337605390957E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>3.4824495702621549E-4</v>
+        <v>3.754100591831566E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>3.5107788164238408E-4</v>
+        <v>3.8050674231240362E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>3.5391080625855263E-4</v>
+        <v>3.8560342544165043E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>3.6152338546126896E-4</v>
+        <v>3.938977091004229E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>3.6806778318324615E-4</v>
+        <v>4.0102815590911211E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>3.7326311577328699E-4</v>
+        <v>4.0668872915977704E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>3.8684273091170592E-4</v>
+        <v>4.2148439524556525E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>3.9133628030331842E-4</v>
+        <v>4.2638034079782157E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>3.9460271712590122E-4</v>
+        <v>4.2993928617474374E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>4.0654622240144441E-4</v>
+        <v>4.4295232919176118E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>4.0753465089361259E-4</v>
+        <v>4.4402927119422075E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>4.0771889354095417E-4</v>
+        <v>4.4423001272194757E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>4.0791884576015625E-4</v>
+        <v>4.4444787060954387E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>4.0852284515353123E-4</v>
+        <v>4.4510595798899477E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>4.09583671112226E-4</v>
+        <v>4.4626178063197816E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>4.1078673798239525E-4</v>
+        <v>4.4757258182247277E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>4.122748024320864E-4</v>
+        <v>4.4919390205042781E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>4.1373149805260076E-4</v>
+        <v>4.5078104437884211E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BE2</f>
-        <v>4.1495700440447459E-4</v>
+        <v>4.5211629450069859E-4</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -23230,123 +23230,123 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.5658241110255779E-4</v>
+        <v>3.3512581471667653E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.546826203139623E-4</v>
+        <v>3.4245229349232932E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5321445226457391E-4</v>
+        <v>3.4406917165453311E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.524765095404888E-4</v>
+        <v>3.4697346123362365E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4444165282567749E-4</v>
+        <v>3.4874483652143026E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1958904086234162E-4</v>
+        <v>3.5370414497766343E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1833343353394986E-4</v>
+        <v>3.5748141045927891E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.1412412398046098E-4</v>
+        <v>3.5749415666950872E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.1380528787726191E-4</v>
+        <v>3.6235643503264504E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.1412454613579944E-4</v>
+        <v>3.6748826347409249E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.1593684912226372E-4</v>
+        <v>3.7303479369352893E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.1696816235110396E-4</v>
+        <v>3.7811660081257293E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.1872195023581305E-4</v>
+        <v>3.8341325223429322E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.204519818383183E-4</v>
+        <v>3.8852258026095287E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.2661274550379422E-4</v>
+        <v>3.9691083411764322E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3159751139569607E-4</v>
+        <v>4.0360184206400415E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.3626742360268452E-4</v>
+        <v>4.0936996335181616E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.4855286672866461E-4</v>
+        <v>4.2432654051018792E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.5224997356011041E-4</v>
+        <v>4.2874453818290829E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.5572055564458207E-4</v>
+        <v>4.3247026795349556E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.6666645963201293E-4</v>
+        <v>4.4583172593973757E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.6745317163350868E-4</v>
+        <v>4.4698471930671959E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.6812816732604984E-4</v>
+        <v>4.4773240473439335E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.6829543482855682E-4</v>
+        <v>4.4797035817470312E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.6916794586512564E-4</v>
+        <v>4.4893505361214171E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.6836027015493497E-4</v>
+        <v>4.4958420464541509E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.6989680254038607E-4</v>
+        <v>4.5121660426941369E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.7101492304657024E-4</v>
+        <v>4.5260577332722303E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.7218016517873024E-4</v>
+        <v>4.5404421104897877E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.7301391239035468E-4</v>
+        <v>4.5519387436306075E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -23357,123 +23357,123 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.7733679111085859E-4</v>
+        <v>5.4259676434598647E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.1624349374592988E-4</v>
+        <v>4.9844215168280475E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.0741882465691354E-4</v>
+        <v>4.9428094904465346E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.1345781970387209E-4</v>
+        <v>5.0544144667222896E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.0721121114026969E-4</v>
+        <v>5.1354790995754805E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>4.7306733810797443E-4</v>
+        <v>5.235657577332682E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>4.7481949081841583E-4</v>
+        <v>5.332117943345761E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>4.7320913259414843E-4</v>
+        <v>5.3854348287996328E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>4.7463592657213656E-4</v>
+        <v>5.480703765526247E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>4.7740258867597427E-4</v>
+        <v>5.5850410433932053E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>4.8006153857130626E-4</v>
+        <v>5.6682105141791681E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>4.8249268977570829E-4</v>
+        <v>5.7557356682662623E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>4.8553787759081645E-4</v>
+        <v>5.8408796944263018E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>4.8878116836815273E-4</v>
+        <v>5.9260835157877673E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>4.9839012649989111E-4</v>
+        <v>6.0566050635881105E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>5.0688524375738135E-4</v>
+        <v>6.1695221183796919E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>5.1408893015787694E-4</v>
+        <v>6.2584880879500203E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>5.3298064486994104E-4</v>
+        <v>6.4884800781915975E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.3904493880410056E-4</v>
+        <v>6.5610387706092899E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>5.4440423055981968E-4</v>
+        <v>6.6186403829994044E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>5.6091264450523141E-4</v>
+        <v>6.8201670982440869E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>5.6228352121743142E-4</v>
+        <v>6.8398414084949516E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>5.6300211186441568E-4</v>
+        <v>6.847459982390736E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>5.6370242333199415E-4</v>
+        <v>6.8565057452186899E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>5.6505007903216167E-4</v>
+        <v>6.8714196442322276E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>5.6472680383080583E-4</v>
+        <v>6.892498228308697E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>5.6695236229259763E-4</v>
+        <v>6.9159375787861133E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>5.6913462321645978E-4</v>
+        <v>6.942944886231706E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>5.7051355681803149E-4</v>
+        <v>6.9600264074737327E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>5.7222367877689934E-4</v>
+        <v>6.98292220994049E-4</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -23484,123 +23484,123 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.1763216261773128E-4</v>
+        <v>2.9851931548825495E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0669186158966625E-4</v>
+        <v>2.9611637385514933E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1685245989931227E-4</v>
+        <v>3.0864864876083039E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1739782303062078E-4</v>
+        <v>3.1244244159283816E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.1192088323962313E-4</v>
+        <v>3.1581777796216959E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>2.9142107044187574E-4</v>
+        <v>3.2252933414421414E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>2.9074753100539563E-4</v>
+        <v>3.2650305158812983E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>2.8982606084405671E-4</v>
+        <v>3.298413438909791E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>2.8983551626977824E-4</v>
+        <v>3.3467812200296891E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>2.9017394439876564E-4</v>
+        <v>3.3946891525767797E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>2.9163668386046073E-4</v>
+        <v>3.443429612582203E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>2.925881148990673E-4</v>
+        <v>3.4903323609280015E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>2.9426018427939119E-4</v>
+        <v>3.5398645802132289E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>2.9593459855706646E-4</v>
+        <v>3.5879720000574574E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.0150773383604229E-4</v>
+        <v>3.6640237644490118E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.0595864748126056E-4</v>
+        <v>3.7239565881871939E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.1002205402131999E-4</v>
+        <v>3.774190063766538E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.2110959644743808E-4</v>
+        <v>3.9091723865015179E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.2436399554231139E-4</v>
+        <v>3.9480284431652184E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.2731318390816493E-4</v>
+        <v>3.9793376599498131E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.3702991066531066E-4</v>
+        <v>4.0979648620174003E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.3741002097795717E-4</v>
+        <v>4.1043903049645998E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.3750948921623593E-4</v>
+        <v>4.1049272682690713E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.3717526117842833E-4</v>
+        <v>4.1011782453415828E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.375039228412405E-4</v>
+        <v>4.1042930024698523E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.3608556774951192E-4</v>
+        <v>4.1019288699596694E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.3718406040280117E-4</v>
+        <v>4.1131214355959064E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.378358588691025E-4</v>
+        <v>4.1213021542511836E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.3847440572982264E-4</v>
+        <v>4.1292459644126167E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.3885840983958386E-4</v>
+        <v>4.135134570368764E-4</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
@@ -23782,12 +23782,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -24781,12 +24781,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30">
+    <row r="1" spans="1:34">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NH\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA33D1C-165D-458B-89E7-BF89376ADE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F0C145-5EB0-4280-9DA6-AA87E9CED957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="730" windowWidth="9800" windowHeight="10070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
   <si>
     <t>Sources:</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>energy consumption that more closely matches EIA's AEO trajectory: freight LDVs, passenger HDVs, freight HDVs, passenger ships, passenger motorbikes.</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1293,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1338,7 +1335,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7789,30 +7785,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.40625" customWidth="1"/>
-    <col min="2" max="2" width="107.40625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="31">
-        <v>45467</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7820,58 +7810,58 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="B8" s="5">
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="B14" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -8032,12 +8022,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9031,12 +9021,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -9908,12 +9898,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -10785,14 +10775,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="2" width="10.40625" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -11691,12 +11681,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -12568,12 +12558,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -13559,12 +13549,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -14436,12 +14426,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -15435,12 +15425,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -16213,11 +16203,11 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.40625" customWidth="1"/>
-    <col min="2" max="2" width="16.40625" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -18519,7 +18509,7 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -18896,9 +18886,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.40625" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19005,11 +18995,11 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.40625" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19179,7 +19169,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29.5">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
@@ -19197,7 +19187,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29.5">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
@@ -19289,11 +19279,11 @@
       <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.40625" customWidth="1"/>
-    <col min="40" max="40" width="8.7265625" style="24"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -22743,12 +22733,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -23782,12 +23772,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
@@ -24781,12 +24771,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
